--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.73851316701762</v>
+        <v>27.73851316701776</v>
       </c>
       <c r="C2">
-        <v>34.9216575819808</v>
+        <v>34.92165758198078</v>
       </c>
       <c r="D2">
-        <v>7.562272028975362</v>
+        <v>7.562272028975333</v>
       </c>
       <c r="E2">
-        <v>31.3986907255217</v>
+        <v>31.39869072552167</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>65.34277000285526</v>
+        <v>65.34277000285569</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.35389093629325</v>
+        <v>25.35389093629353</v>
       </c>
       <c r="C3">
-        <v>32.03563741571991</v>
+        <v>32.03563741572006</v>
       </c>
       <c r="D3">
-        <v>6.954937305268399</v>
+        <v>6.954937305268655</v>
       </c>
       <c r="E3">
-        <v>28.72746454341037</v>
+        <v>28.72746454341042</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.66317846112887</v>
+        <v>60.6631784611295</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.87163977441939</v>
+        <v>23.87163977441922</v>
       </c>
       <c r="C4">
-        <v>30.23288580369903</v>
+        <v>30.23288580369893</v>
       </c>
       <c r="D4">
-        <v>6.573560762239625</v>
+        <v>6.573560762239492</v>
       </c>
       <c r="E4">
-        <v>27.07068144554501</v>
+        <v>27.07068144554502</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.75128917625167</v>
+        <v>57.7512891762516</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.26081127817515</v>
+        <v>23.2608112781754</v>
       </c>
       <c r="C5">
-        <v>29.48813333796841</v>
+        <v>29.48813333796862</v>
       </c>
       <c r="D5">
-        <v>6.415559475822771</v>
+        <v>6.415559475822685</v>
       </c>
       <c r="E5">
-        <v>26.38850336781237</v>
+        <v>26.38850336781246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.55204723819269</v>
+        <v>56.55204723819328</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.1589168463525</v>
+        <v>23.15891684635234</v>
       </c>
       <c r="C6">
-        <v>29.36379734361091</v>
+        <v>29.36379734361069</v>
       </c>
       <c r="D6">
-        <v>6.389155687824714</v>
+        <v>6.389155687824553</v>
       </c>
       <c r="E6">
-        <v>26.27473325675322</v>
+        <v>26.2747332567531</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.35208314882879</v>
+        <v>56.35208314882788</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.86343205701664</v>
+        <v>23.86343205701636</v>
       </c>
       <c r="C7">
-        <v>30.22288552435045</v>
+        <v>30.22288552435028</v>
       </c>
       <c r="D7">
-        <v>6.571440910100256</v>
+        <v>6.571440910100162</v>
       </c>
       <c r="E7">
-        <v>27.0615130695802</v>
+        <v>27.06151306958017</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.73517009581689</v>
+        <v>57.73517009581646</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.91850931632662</v>
+        <v>26.9185093163266</v>
       </c>
       <c r="C8">
         <v>33.93129606400581</v>
       </c>
       <c r="D8">
-        <v>7.354310803676735</v>
+        <v>7.354310803676595</v>
       </c>
       <c r="E8">
-        <v>30.47915623875336</v>
+        <v>30.47915623875327</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.73519137468071</v>
+        <v>63.73519137468043</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.90924860970949</v>
+        <v>32.90924860970937</v>
       </c>
       <c r="C9">
-        <v>41.11258650721511</v>
+        <v>41.112586507215</v>
       </c>
       <c r="D9">
-        <v>8.850865907354777</v>
+        <v>8.850865907354681</v>
       </c>
       <c r="E9">
-        <v>37.23228488326929</v>
+        <v>37.23228488326916</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>75.3947453998224</v>
+        <v>75.39474539982153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.63404692519793</v>
+        <v>37.63404692519791</v>
       </c>
       <c r="C10">
-        <v>46.67996170485321</v>
+        <v>46.67996170485317</v>
       </c>
       <c r="D10">
-        <v>9.990150030170046</v>
+        <v>9.990150030170058</v>
       </c>
       <c r="E10">
-        <v>42.64942757771927</v>
+        <v>42.64942757771931</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84.51085894649934</v>
+        <v>84.51085894649896</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.00395438108652</v>
+        <v>40.00395438108651</v>
       </c>
       <c r="C11">
-        <v>49.43745393794557</v>
+        <v>49.43745393794528</v>
       </c>
       <c r="D11">
-        <v>10.54590443454175</v>
+        <v>10.5459044345418</v>
       </c>
       <c r="E11">
-        <v>45.41731109770546</v>
+        <v>45.41731109770538</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>89.05901642942892</v>
+        <v>89.05901642942851</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.96015656077586</v>
+        <v>40.96015656077657</v>
       </c>
       <c r="C12">
-        <v>50.54313148474341</v>
+        <v>50.54313148474405</v>
       </c>
       <c r="D12">
-        <v>10.76686334694677</v>
+        <v>10.76686334694686</v>
       </c>
       <c r="E12">
-        <v>46.54718464390283</v>
+        <v>46.54718464390334</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>90.86690946039488</v>
+        <v>90.86690946039688</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.75089387959954</v>
+        <v>40.75089387959942</v>
       </c>
       <c r="C13">
-        <v>50.30150019363878</v>
+        <v>50.30150019363858</v>
       </c>
       <c r="D13">
-        <v>10.71867465705076</v>
+        <v>10.7186746570507</v>
       </c>
       <c r="E13">
-        <v>46.29918647192572</v>
+        <v>46.29918647192564</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>90.47265847498934</v>
+        <v>90.47265847498868</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.08119943608989</v>
+        <v>40.0811994360897</v>
       </c>
       <c r="C14">
-        <v>49.52692302456219</v>
+        <v>49.52692302456197</v>
       </c>
       <c r="D14">
-        <v>10.5638263707949</v>
+        <v>10.56382637079489</v>
       </c>
       <c r="E14">
-        <v>45.5082781858068</v>
+        <v>45.50827818580672</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>89.20566657822647</v>
+        <v>89.20566657822599</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>39.67985496621616</v>
+        <v>39.67985496621563</v>
       </c>
       <c r="C15">
-        <v>49.06178186611076</v>
+        <v>49.06178186610978</v>
       </c>
       <c r="D15">
-        <v>10.47057291126661</v>
+        <v>10.47057291126647</v>
       </c>
       <c r="E15">
-        <v>45.03619720260165</v>
+        <v>45.03619720260125</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>88.44258005517982</v>
+        <v>88.442580055178</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.48544781149607</v>
+        <v>37.48544781149604</v>
       </c>
       <c r="C16">
-        <v>46.50626010396898</v>
+        <v>46.5062601039688</v>
       </c>
       <c r="D16">
-        <v>9.954934279306384</v>
+        <v>9.954934279306409</v>
       </c>
       <c r="E16">
-        <v>42.47721288313239</v>
+        <v>42.47721288313235</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84.22265242423047</v>
+        <v>84.22265242422966</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.20914256926338</v>
+        <v>36.20914256926353</v>
       </c>
       <c r="C17">
-        <v>45.01053988391772</v>
+        <v>45.01053988391782</v>
       </c>
       <c r="D17">
-        <v>9.650759757475219</v>
+        <v>9.650759757475299</v>
       </c>
       <c r="E17">
-        <v>41.00365258568969</v>
+        <v>41.00365258568978</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81.73345768657271</v>
+        <v>81.73345768657286</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.49353832708621</v>
+        <v>35.49353832708643</v>
       </c>
       <c r="C18">
-        <v>44.16896190016519</v>
+        <v>44.16896190016565</v>
       </c>
       <c r="D18">
-        <v>9.478907321916848</v>
+        <v>9.478907321916825</v>
       </c>
       <c r="E18">
-        <v>40.18146467893337</v>
+        <v>40.18146467893343</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80.33371560196197</v>
+        <v>80.33371560196225</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.25390158439311</v>
+        <v>35.25390158439301</v>
       </c>
       <c r="C19">
-        <v>43.88667233896457</v>
+        <v>43.88667233896448</v>
       </c>
       <c r="D19">
-        <v>9.421154051246788</v>
+        <v>9.421154051246724</v>
       </c>
       <c r="E19">
-        <v>39.90672477775254</v>
+        <v>39.90672477775242</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>79.87879510338725</v>
+        <v>79.87879510338664</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.34296152180323</v>
+        <v>36.34296152180342</v>
       </c>
       <c r="C20">
-        <v>45.16768234076404</v>
+        <v>45.16768234076413</v>
       </c>
       <c r="D20">
-        <v>9.682793585506804</v>
+        <v>9.682793585506838</v>
       </c>
       <c r="E20">
-        <v>41.15770829994266</v>
+        <v>41.15770829994278</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.27596972429519</v>
+        <v>40.27596972429506</v>
       </c>
       <c r="C21">
-        <v>49.7523997986392</v>
+        <v>49.75239979863935</v>
       </c>
       <c r="D21">
-        <v>10.6089600108861</v>
+        <v>10.60896001088609</v>
       </c>
       <c r="E21">
-        <v>45.7378814662683</v>
+        <v>45.73788146626821</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>89.57497365096661</v>
+        <v>89.57497365096637</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.22759196616101</v>
+        <v>43.22759196616107</v>
       </c>
       <c r="C22">
-        <v>53.14881170682006</v>
+        <v>53.14881170682013</v>
       </c>
       <c r="D22">
-        <v>11.28270028913327</v>
+        <v>11.28270028913319</v>
       </c>
       <c r="E22">
-        <v>49.26425172182828</v>
+        <v>49.26425172182831</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>95.08577612656651</v>
+        <v>95.08577612656667</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.59973418088144</v>
+        <v>41.59973418088123</v>
       </c>
       <c r="C23">
-        <v>51.28043792799271</v>
+        <v>51.28043792799267</v>
       </c>
       <c r="D23">
-        <v>10.91354899648714</v>
+        <v>10.91354899648699</v>
       </c>
       <c r="E23">
-        <v>47.30784945698663</v>
+        <v>47.30784945698657</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>92.06688103026993</v>
+        <v>92.06688103027021</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.28240703696937</v>
+        <v>36.28240703696942</v>
       </c>
       <c r="C24">
-        <v>45.09658289180972</v>
+        <v>45.09658289180993</v>
       </c>
       <c r="D24">
-        <v>9.66830199019005</v>
+        <v>9.668301990189992</v>
       </c>
       <c r="E24">
-        <v>41.08798416434956</v>
+        <v>41.08798416434944</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81.87700073224462</v>
+        <v>81.87700073224426</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.26376224979839</v>
+        <v>31.2637622497984</v>
       </c>
       <c r="C25">
-        <v>39.152998651764</v>
+        <v>39.15299865176382</v>
       </c>
       <c r="D25">
-        <v>8.445228915661639</v>
+        <v>8.445228915661627</v>
       </c>
       <c r="E25">
-        <v>35.36783482145774</v>
+        <v>35.3678348214577</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>72.2164022675362</v>
+        <v>72.21640226753581</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.73851316701776</v>
+        <v>27.73851316701762</v>
       </c>
       <c r="C2">
-        <v>34.92165758198078</v>
+        <v>34.9216575819808</v>
       </c>
       <c r="D2">
-        <v>7.562272028975333</v>
+        <v>7.562272028975362</v>
       </c>
       <c r="E2">
-        <v>31.39869072552167</v>
+        <v>31.3986907255217</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>65.34277000285569</v>
+        <v>65.34277000285526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.35389093629353</v>
+        <v>25.35389093629325</v>
       </c>
       <c r="C3">
-        <v>32.03563741572006</v>
+        <v>32.03563741571991</v>
       </c>
       <c r="D3">
-        <v>6.954937305268655</v>
+        <v>6.954937305268399</v>
       </c>
       <c r="E3">
-        <v>28.72746454341042</v>
+        <v>28.72746454341037</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.6631784611295</v>
+        <v>60.66317846112887</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.87163977441922</v>
+        <v>23.87163977441939</v>
       </c>
       <c r="C4">
-        <v>30.23288580369893</v>
+        <v>30.23288580369903</v>
       </c>
       <c r="D4">
-        <v>6.573560762239492</v>
+        <v>6.573560762239625</v>
       </c>
       <c r="E4">
-        <v>27.07068144554502</v>
+        <v>27.07068144554501</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.7512891762516</v>
+        <v>57.75128917625167</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.2608112781754</v>
+        <v>23.26081127817515</v>
       </c>
       <c r="C5">
-        <v>29.48813333796862</v>
+        <v>29.48813333796841</v>
       </c>
       <c r="D5">
-        <v>6.415559475822685</v>
+        <v>6.415559475822771</v>
       </c>
       <c r="E5">
-        <v>26.38850336781246</v>
+        <v>26.38850336781237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.55204723819328</v>
+        <v>56.55204723819269</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.15891684635234</v>
+        <v>23.1589168463525</v>
       </c>
       <c r="C6">
-        <v>29.36379734361069</v>
+        <v>29.36379734361091</v>
       </c>
       <c r="D6">
-        <v>6.389155687824553</v>
+        <v>6.389155687824714</v>
       </c>
       <c r="E6">
-        <v>26.2747332567531</v>
+        <v>26.27473325675322</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.35208314882788</v>
+        <v>56.35208314882879</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.86343205701636</v>
+        <v>23.86343205701664</v>
       </c>
       <c r="C7">
-        <v>30.22288552435028</v>
+        <v>30.22288552435045</v>
       </c>
       <c r="D7">
-        <v>6.571440910100162</v>
+        <v>6.571440910100256</v>
       </c>
       <c r="E7">
-        <v>27.06151306958017</v>
+        <v>27.0615130695802</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.73517009581646</v>
+        <v>57.73517009581689</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.9185093163266</v>
+        <v>26.91850931632662</v>
       </c>
       <c r="C8">
         <v>33.93129606400581</v>
       </c>
       <c r="D8">
-        <v>7.354310803676595</v>
+        <v>7.354310803676735</v>
       </c>
       <c r="E8">
-        <v>30.47915623875327</v>
+        <v>30.47915623875336</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.73519137468043</v>
+        <v>63.73519137468071</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.90924860970937</v>
+        <v>32.90924860970949</v>
       </c>
       <c r="C9">
-        <v>41.112586507215</v>
+        <v>41.11258650721511</v>
       </c>
       <c r="D9">
-        <v>8.850865907354681</v>
+        <v>8.850865907354777</v>
       </c>
       <c r="E9">
-        <v>37.23228488326916</v>
+        <v>37.23228488326929</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>75.39474539982153</v>
+        <v>75.3947453998224</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.63404692519791</v>
+        <v>37.63404692519793</v>
       </c>
       <c r="C10">
-        <v>46.67996170485317</v>
+        <v>46.67996170485321</v>
       </c>
       <c r="D10">
-        <v>9.990150030170058</v>
+        <v>9.990150030170046</v>
       </c>
       <c r="E10">
-        <v>42.64942757771931</v>
+        <v>42.64942757771927</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84.51085894649896</v>
+        <v>84.51085894649934</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.00395438108651</v>
+        <v>40.00395438108652</v>
       </c>
       <c r="C11">
-        <v>49.43745393794528</v>
+        <v>49.43745393794557</v>
       </c>
       <c r="D11">
-        <v>10.5459044345418</v>
+        <v>10.54590443454175</v>
       </c>
       <c r="E11">
-        <v>45.41731109770538</v>
+        <v>45.41731109770546</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>89.05901642942851</v>
+        <v>89.05901642942892</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.96015656077657</v>
+        <v>40.96015656077586</v>
       </c>
       <c r="C12">
-        <v>50.54313148474405</v>
+        <v>50.54313148474341</v>
       </c>
       <c r="D12">
-        <v>10.76686334694686</v>
+        <v>10.76686334694677</v>
       </c>
       <c r="E12">
-        <v>46.54718464390334</v>
+        <v>46.54718464390283</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>90.86690946039688</v>
+        <v>90.86690946039488</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.75089387959942</v>
+        <v>40.75089387959954</v>
       </c>
       <c r="C13">
-        <v>50.30150019363858</v>
+        <v>50.30150019363878</v>
       </c>
       <c r="D13">
-        <v>10.7186746570507</v>
+        <v>10.71867465705076</v>
       </c>
       <c r="E13">
-        <v>46.29918647192564</v>
+        <v>46.29918647192572</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>90.47265847498868</v>
+        <v>90.47265847498934</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.0811994360897</v>
+        <v>40.08119943608989</v>
       </c>
       <c r="C14">
-        <v>49.52692302456197</v>
+        <v>49.52692302456219</v>
       </c>
       <c r="D14">
-        <v>10.56382637079489</v>
+        <v>10.5638263707949</v>
       </c>
       <c r="E14">
-        <v>45.50827818580672</v>
+        <v>45.5082781858068</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>89.20566657822599</v>
+        <v>89.20566657822647</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>39.67985496621563</v>
+        <v>39.67985496621616</v>
       </c>
       <c r="C15">
-        <v>49.06178186610978</v>
+        <v>49.06178186611076</v>
       </c>
       <c r="D15">
-        <v>10.47057291126647</v>
+        <v>10.47057291126661</v>
       </c>
       <c r="E15">
-        <v>45.03619720260125</v>
+        <v>45.03619720260165</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>88.442580055178</v>
+        <v>88.44258005517982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.48544781149604</v>
+        <v>37.48544781149607</v>
       </c>
       <c r="C16">
-        <v>46.5062601039688</v>
+        <v>46.50626010396898</v>
       </c>
       <c r="D16">
-        <v>9.954934279306409</v>
+        <v>9.954934279306384</v>
       </c>
       <c r="E16">
-        <v>42.47721288313235</v>
+        <v>42.47721288313239</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84.22265242422966</v>
+        <v>84.22265242423047</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.20914256926353</v>
+        <v>36.20914256926338</v>
       </c>
       <c r="C17">
-        <v>45.01053988391782</v>
+        <v>45.01053988391772</v>
       </c>
       <c r="D17">
-        <v>9.650759757475299</v>
+        <v>9.650759757475219</v>
       </c>
       <c r="E17">
-        <v>41.00365258568978</v>
+        <v>41.00365258568969</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81.73345768657286</v>
+        <v>81.73345768657271</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.49353832708643</v>
+        <v>35.49353832708621</v>
       </c>
       <c r="C18">
-        <v>44.16896190016565</v>
+        <v>44.16896190016519</v>
       </c>
       <c r="D18">
-        <v>9.478907321916825</v>
+        <v>9.478907321916848</v>
       </c>
       <c r="E18">
-        <v>40.18146467893343</v>
+        <v>40.18146467893337</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80.33371560196225</v>
+        <v>80.33371560196197</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.25390158439301</v>
+        <v>35.25390158439311</v>
       </c>
       <c r="C19">
-        <v>43.88667233896448</v>
+        <v>43.88667233896457</v>
       </c>
       <c r="D19">
-        <v>9.421154051246724</v>
+        <v>9.421154051246788</v>
       </c>
       <c r="E19">
-        <v>39.90672477775242</v>
+        <v>39.90672477775254</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>79.87879510338664</v>
+        <v>79.87879510338725</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.34296152180342</v>
+        <v>36.34296152180323</v>
       </c>
       <c r="C20">
-        <v>45.16768234076413</v>
+        <v>45.16768234076404</v>
       </c>
       <c r="D20">
-        <v>9.682793585506838</v>
+        <v>9.682793585506804</v>
       </c>
       <c r="E20">
-        <v>41.15770829994278</v>
+        <v>41.15770829994266</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.27596972429506</v>
+        <v>40.27596972429519</v>
       </c>
       <c r="C21">
-        <v>49.75239979863935</v>
+        <v>49.7523997986392</v>
       </c>
       <c r="D21">
-        <v>10.60896001088609</v>
+        <v>10.6089600108861</v>
       </c>
       <c r="E21">
-        <v>45.73788146626821</v>
+        <v>45.7378814662683</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>89.57497365096637</v>
+        <v>89.57497365096661</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.22759196616107</v>
+        <v>43.22759196616101</v>
       </c>
       <c r="C22">
-        <v>53.14881170682013</v>
+        <v>53.14881170682006</v>
       </c>
       <c r="D22">
-        <v>11.28270028913319</v>
+        <v>11.28270028913327</v>
       </c>
       <c r="E22">
-        <v>49.26425172182831</v>
+        <v>49.26425172182828</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>95.08577612656667</v>
+        <v>95.08577612656651</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.59973418088123</v>
+        <v>41.59973418088144</v>
       </c>
       <c r="C23">
-        <v>51.28043792799267</v>
+        <v>51.28043792799271</v>
       </c>
       <c r="D23">
-        <v>10.91354899648699</v>
+        <v>10.91354899648714</v>
       </c>
       <c r="E23">
-        <v>47.30784945698657</v>
+        <v>47.30784945698663</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>92.06688103027021</v>
+        <v>92.06688103026993</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.28240703696942</v>
+        <v>36.28240703696937</v>
       </c>
       <c r="C24">
-        <v>45.09658289180993</v>
+        <v>45.09658289180972</v>
       </c>
       <c r="D24">
-        <v>9.668301990189992</v>
+        <v>9.66830199019005</v>
       </c>
       <c r="E24">
-        <v>41.08798416434944</v>
+        <v>41.08798416434956</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81.87700073224426</v>
+        <v>81.87700073224462</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.2637622497984</v>
+        <v>31.26376224979839</v>
       </c>
       <c r="C25">
-        <v>39.15299865176382</v>
+        <v>39.152998651764</v>
       </c>
       <c r="D25">
-        <v>8.445228915661627</v>
+        <v>8.445228915661639</v>
       </c>
       <c r="E25">
-        <v>35.3678348214577</v>
+        <v>35.36783482145774</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>72.21640226753581</v>
+        <v>72.2164022675362</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.73851316701762</v>
+        <v>27.49110788172333</v>
       </c>
       <c r="C2">
-        <v>34.9216575819808</v>
+        <v>34.69235810180544</v>
       </c>
       <c r="D2">
-        <v>7.562272028975362</v>
+        <v>7.533950413710041</v>
       </c>
       <c r="E2">
-        <v>31.3986907255217</v>
+        <v>31.26793371868966</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.977381254105877</v>
       </c>
       <c r="H2">
-        <v>65.34277000285526</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>65.30564721766538</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.35389093629325</v>
+        <v>25.12733945645304</v>
       </c>
       <c r="C3">
-        <v>32.03563741571991</v>
+        <v>31.83310856750466</v>
       </c>
       <c r="D3">
-        <v>6.954937305268399</v>
+        <v>6.929879969979911</v>
       </c>
       <c r="E3">
-        <v>28.72746454341037</v>
+        <v>28.61409954162589</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.005010262987851</v>
       </c>
       <c r="H3">
-        <v>60.66317846112887</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.66858548953943</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.87163977441939</v>
+        <v>23.65778237057217</v>
       </c>
       <c r="C4">
-        <v>30.23288580369903</v>
+        <v>30.04690896404339</v>
       </c>
       <c r="D4">
-        <v>6.573560762239625</v>
+        <v>6.550383130056711</v>
       </c>
       <c r="E4">
-        <v>27.07068144554501</v>
+        <v>26.96702441667777</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.021625406065374</v>
       </c>
       <c r="H4">
-        <v>57.75128917625167</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.78319643102579</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.26081127817515</v>
+        <v>23.05217082505229</v>
       </c>
       <c r="C5">
-        <v>29.48813333796841</v>
+        <v>29.30901627918721</v>
       </c>
       <c r="D5">
-        <v>6.415559475822771</v>
+        <v>6.393127902333862</v>
       </c>
       <c r="E5">
-        <v>26.38850336781237</v>
+        <v>26.28863771147171</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.028346721538181</v>
       </c>
       <c r="H5">
-        <v>56.55204723819269</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.59496614650666</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.1589168463525</v>
+        <v>22.95114713161434</v>
       </c>
       <c r="C6">
-        <v>29.36379734361091</v>
+        <v>29.18582848559864</v>
       </c>
       <c r="D6">
-        <v>6.389155687824714</v>
+        <v>6.366847060129905</v>
       </c>
       <c r="E6">
-        <v>26.27473325675322</v>
+        <v>26.17548904729138</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.029460760722052</v>
       </c>
       <c r="H6">
-        <v>56.35208314882879</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.39684625303231</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.86343205701664</v>
+        <v>23.64964474922105</v>
       </c>
       <c r="C7">
-        <v>30.22288552435045</v>
+        <v>30.03700063211754</v>
       </c>
       <c r="D7">
-        <v>6.571440910100256</v>
+        <v>6.54827340776846</v>
       </c>
       <c r="E7">
-        <v>27.0615130695802</v>
+        <v>26.95790775335936</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.021716208109006</v>
       </c>
       <c r="H7">
-        <v>57.73517009581689</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.76722486378749</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.91850931632662</v>
+        <v>26.67836652445558</v>
       </c>
       <c r="C8">
-        <v>33.93129606400581</v>
+        <v>33.71126134836746</v>
       </c>
       <c r="D8">
-        <v>7.354310803676735</v>
+        <v>7.327148730424382</v>
       </c>
       <c r="E8">
-        <v>30.47915623875336</v>
+        <v>30.35465492336938</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.987006343123817</v>
       </c>
       <c r="H8">
-        <v>63.73519137468071</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.71273197094646</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.90924860970949</v>
+        <v>32.61172004622786</v>
       </c>
       <c r="C9">
-        <v>41.11258650721511</v>
+        <v>40.82091016400127</v>
       </c>
       <c r="D9">
-        <v>8.850865907354777</v>
+        <v>8.814042554639538</v>
       </c>
       <c r="E9">
-        <v>37.23228488326929</v>
+        <v>37.05307958979265</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.91374608582344</v>
       </c>
       <c r="H9">
-        <v>75.3947453998224</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>75.26072984619438</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.63404692519793</v>
+        <v>37.27782086635914</v>
       </c>
       <c r="C10">
-        <v>46.67996170485321</v>
+        <v>46.31808921058249</v>
       </c>
       <c r="D10">
-        <v>9.990150030170046</v>
+        <v>9.942735939384301</v>
       </c>
       <c r="E10">
-        <v>42.64942757771927</v>
+        <v>42.40389621325625</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.851322735966927</v>
       </c>
       <c r="H10">
-        <v>84.51085894649934</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>84.2227359561726</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.00395438108652</v>
+        <v>39.60932586664089</v>
       </c>
       <c r="C11">
-        <v>49.43745393794557</v>
+        <v>49.03084853643256</v>
       </c>
       <c r="D11">
-        <v>10.54590443454175</v>
+        <v>10.49141717460628</v>
       </c>
       <c r="E11">
-        <v>45.41731109770546</v>
+        <v>45.12422393322379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.818570351971749</v>
       </c>
       <c r="H11">
-        <v>89.05901642942892</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>88.70664346325916</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.96015656077586</v>
+        <v>40.54738202419176</v>
       </c>
       <c r="C12">
-        <v>50.54313148474341</v>
+        <v>50.11563048520746</v>
       </c>
       <c r="D12">
-        <v>10.76686334694677</v>
+        <v>10.70901979679251</v>
       </c>
       <c r="E12">
-        <v>46.54718464390283</v>
+        <v>46.23072622280808</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.805101479744027</v>
       </c>
       <c r="H12">
-        <v>90.86690946039488</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>90.48466465063851</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.75089387959954</v>
+        <v>40.34224778994347</v>
       </c>
       <c r="C13">
-        <v>50.30150019363878</v>
+        <v>49.87874140658064</v>
       </c>
       <c r="D13">
-        <v>10.71867465705076</v>
+        <v>10.66159510781887</v>
       </c>
       <c r="E13">
-        <v>46.29918647192572</v>
+        <v>45.98809093147697</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.808061106113242</v>
       </c>
       <c r="H13">
-        <v>90.47265847498934</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>90.09718499910225</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.08119943608989</v>
+        <v>39.68517044792608</v>
       </c>
       <c r="C14">
-        <v>49.52692302456219</v>
+        <v>49.11869999645491</v>
       </c>
       <c r="D14">
-        <v>10.5638263707949</v>
+        <v>10.50908027361803</v>
       </c>
       <c r="E14">
-        <v>45.5082781858068</v>
+        <v>45.21340622856559</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.817487555197141</v>
       </c>
       <c r="H14">
-        <v>89.20566657822647</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>88.85097783191669</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>39.67985496621616</v>
+        <v>39.29098701063517</v>
       </c>
       <c r="C15">
-        <v>49.06178186611076</v>
+        <v>48.66183951014415</v>
       </c>
       <c r="D15">
-        <v>10.47057291126661</v>
+        <v>10.41714986839692</v>
       </c>
       <c r="E15">
-        <v>45.03619720260165</v>
+        <v>44.75041646900175</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.823103216086301</v>
       </c>
       <c r="H15">
-        <v>88.44258005517982</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>88.09975158269341</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.48544781149607</v>
+        <v>37.1313774972626</v>
       </c>
       <c r="C16">
-        <v>46.50626010396898</v>
+        <v>46.14692274397585</v>
       </c>
       <c r="D16">
-        <v>9.954934279306384</v>
+        <v>9.90791520222316</v>
       </c>
       <c r="E16">
-        <v>42.47721288313239</v>
+        <v>42.23426478946797</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.853345375272719</v>
       </c>
       <c r="H16">
-        <v>84.22265242423047</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>83.93818230924079</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.20914256926338</v>
+        <v>35.87260771151124</v>
       </c>
       <c r="C17">
-        <v>45.01053988391772</v>
+        <v>44.67193412082246</v>
       </c>
       <c r="D17">
-        <v>9.650759757475219</v>
+        <v>9.606941209901866</v>
       </c>
       <c r="E17">
-        <v>41.00365258568969</v>
+        <v>40.78133377519832</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.870562107677558</v>
       </c>
       <c r="H17">
-        <v>81.73345768657271</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>81.48337963905892</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.49353832708621</v>
+        <v>35.16615330982439</v>
       </c>
       <c r="C18">
-        <v>44.16896190016519</v>
+        <v>43.84125737223816</v>
       </c>
       <c r="D18">
-        <v>9.478907321916848</v>
+        <v>9.436747760115317</v>
       </c>
       <c r="E18">
-        <v>40.18146467893337</v>
+        <v>39.96962180614322</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.880091560290027</v>
       </c>
       <c r="H18">
-        <v>80.33371560196197</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>80.14523883740291</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.25390158439311</v>
+        <v>34.92948397242125</v>
       </c>
       <c r="C19">
-        <v>43.88667233896457</v>
+        <v>43.56251645318088</v>
       </c>
       <c r="D19">
-        <v>9.421154051246788</v>
+        <v>9.379530537377349</v>
       </c>
       <c r="E19">
-        <v>39.90672477775254</v>
+        <v>39.69823425871146</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.883262580116283</v>
       </c>
       <c r="H19">
-        <v>79.87879510338725</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>79.69563576294713</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.34296152180323</v>
+        <v>36.00466468918128</v>
       </c>
       <c r="C20">
-        <v>45.16768234076404</v>
+        <v>44.82698418444605</v>
       </c>
       <c r="D20">
-        <v>9.682793585506804</v>
+        <v>9.638654604428815</v>
       </c>
       <c r="E20">
-        <v>41.15770829994266</v>
+        <v>40.93334870765906</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.868770150700602</v>
       </c>
       <c r="H20">
-        <v>81.9955828079931</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>81.73800462642414</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.27596972429519</v>
+        <v>39.8763606773131</v>
       </c>
       <c r="C21">
-        <v>49.7523997986392</v>
+        <v>49.34004549361565</v>
       </c>
       <c r="D21">
-        <v>10.6089600108861</v>
+        <v>10.55355206917472</v>
       </c>
       <c r="E21">
-        <v>45.7378814662683</v>
+        <v>45.43843222247169</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.814753180932436</v>
       </c>
       <c r="H21">
-        <v>89.57497365096661</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>89.2143730822569</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.22759196616101</v>
+        <v>42.76302524424793</v>
       </c>
       <c r="C22">
-        <v>53.14881170682006</v>
+        <v>52.66231047044102</v>
       </c>
       <c r="D22">
-        <v>11.28270028913327</v>
+        <v>11.2152677865934</v>
       </c>
       <c r="E22">
-        <v>49.26425172182828</v>
+        <v>48.87851181192755</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.772626755046117</v>
       </c>
       <c r="H22">
-        <v>95.08577612656651</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>94.61967278186255</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.59973418088144</v>
+        <v>41.17373533418279</v>
       </c>
       <c r="C23">
-        <v>51.28043792799271</v>
+        <v>50.83778958838392</v>
       </c>
       <c r="D23">
-        <v>10.91354899648714</v>
+        <v>10.85325724962774</v>
       </c>
       <c r="E23">
-        <v>47.30784945698663</v>
+        <v>46.9740423121463</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.796015271020363</v>
       </c>
       <c r="H23">
-        <v>92.06688103026993</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>91.66303903058329</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.28240703696937</v>
+        <v>35.9449095924217</v>
       </c>
       <c r="C24">
-        <v>45.09658289180972</v>
+        <v>44.75683376335643</v>
       </c>
       <c r="D24">
-        <v>9.66830199019005</v>
+        <v>9.624308422129147</v>
       </c>
       <c r="E24">
-        <v>41.08798416434956</v>
+        <v>40.86455137028116</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.869581416052905</v>
       </c>
       <c r="H24">
-        <v>81.87700073224462</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>81.6207933245767</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.26376224979839</v>
+        <v>30.98325235524808</v>
       </c>
       <c r="C25">
-        <v>39.152998651764</v>
+        <v>38.88221243137762</v>
       </c>
       <c r="D25">
-        <v>8.445228915661639</v>
+        <v>8.411372881007113</v>
       </c>
       <c r="E25">
-        <v>35.36783482145774</v>
+        <v>35.20604843692722</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.93454057363632</v>
       </c>
       <c r="H25">
-        <v>72.2164022675362</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>72.11446578305291</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>25.35259470222908</v>
+      </c>
+      <c r="C2">
+        <v>18.77254353660289</v>
+      </c>
+      <c r="D2">
+        <v>7.286326353480015</v>
+      </c>
+      <c r="E2">
+        <v>30.13366941733365</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>20.38042788514146</v>
+      </c>
+      <c r="H2">
+        <v>7.076680292814435</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>11.83621915003461</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>23.69573007330495</v>
+      </c>
+      <c r="C3">
+        <v>17.65189016048514</v>
+      </c>
+      <c r="D3">
+        <v>6.777663471421618</v>
+      </c>
+      <c r="E3">
+        <v>27.92863125406489</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>19.27642854297416</v>
+      </c>
+      <c r="H3">
+        <v>7.091287560223454</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>11.60007667882702</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>22.620613145375</v>
+      </c>
+      <c r="C4">
+        <v>16.92826725853455</v>
+      </c>
+      <c r="D4">
+        <v>6.448391891032735</v>
+      </c>
+      <c r="E4">
+        <v>26.51230760176003</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>18.62361852755022</v>
+      </c>
+      <c r="H4">
+        <v>7.112110799290269</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>11.48028186303601</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>22.16789694279015</v>
+      </c>
+      <c r="C5">
+        <v>16.6245206393201</v>
+      </c>
+      <c r="D5">
+        <v>6.309903827161535</v>
+      </c>
+      <c r="E5">
+        <v>25.91907418593269</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>18.36429491920111</v>
+      </c>
+      <c r="H5">
+        <v>7.123388760220271</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>11.43757060538282</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22.091840556688</v>
+      </c>
+      <c r="C6">
+        <v>16.57355109629971</v>
+      </c>
+      <c r="D6">
+        <v>6.286646562166047</v>
+      </c>
+      <c r="E6">
+        <v>25.81958719517153</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>18.32165130981259</v>
+      </c>
+      <c r="H6">
+        <v>7.125424657177612</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>11.43083978693259</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.61456683403846</v>
+      </c>
+      <c r="C7">
+        <v>16.92420659863771</v>
+      </c>
+      <c r="D7">
+        <v>6.446541690665305</v>
+      </c>
+      <c r="E7">
+        <v>26.50437259139989</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>18.62009351685468</v>
+      </c>
+      <c r="H7">
+        <v>7.112251838603233</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>11.47968145167764</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>24.79325959713885</v>
+      </c>
+      <c r="C8">
+        <v>18.39355122660766</v>
+      </c>
+      <c r="D8">
+        <v>7.114429900935088</v>
+      </c>
+      <c r="E8">
+        <v>29.38609436730426</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>19.99480271697651</v>
+      </c>
+      <c r="H8">
+        <v>7.079142279274449</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>11.74944068340989</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>28.61079577103709</v>
+      </c>
+      <c r="C9">
+        <v>20.99136967509053</v>
+      </c>
+      <c r="D9">
+        <v>8.29178277778205</v>
+      </c>
+      <c r="E9">
+        <v>34.56025484592822</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>22.91877512071035</v>
+      </c>
+      <c r="H9">
+        <v>7.116789627718073</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>12.48670890629393</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>31.14440714875406</v>
+      </c>
+      <c r="C10">
+        <v>22.72688029978241</v>
+      </c>
+      <c r="D10">
+        <v>9.079197672380189</v>
+      </c>
+      <c r="E10">
+        <v>38.09936263644377</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>25.31183877163544</v>
+      </c>
+      <c r="H10">
+        <v>7.218608812768442</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.16431781043248</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>32.23974710594714</v>
+      </c>
+      <c r="C11">
+        <v>23.47922428596256</v>
+      </c>
+      <c r="D11">
+        <v>9.421301992033806</v>
+      </c>
+      <c r="E11">
+        <v>39.65965183467731</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>26.4081755563088</v>
+      </c>
+      <c r="H11">
+        <v>7.283482356603481</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>13.7156720413189</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>32.64644552432554</v>
+      </c>
+      <c r="C12">
+        <v>23.75883210917116</v>
+      </c>
+      <c r="D12">
+        <v>9.548599103764374</v>
+      </c>
+      <c r="E12">
+        <v>40.24404117173187</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>26.82450357841351</v>
+      </c>
+      <c r="H12">
+        <v>7.310912856626177</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>13.94005996218095</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>32.55921278045679</v>
+      </c>
+      <c r="C13">
+        <v>23.69884772826868</v>
+      </c>
+      <c r="D13">
+        <v>9.52128240377327</v>
+      </c>
+      <c r="E13">
+        <v>40.11845783347486</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>26.73478574041098</v>
+      </c>
+      <c r="H13">
+        <v>7.304874741448687</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>13.89173961753533</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>32.27336754617509</v>
+      </c>
+      <c r="C14">
+        <v>23.50233340991436</v>
+      </c>
+      <c r="D14">
+        <v>9.431819517645733</v>
+      </c>
+      <c r="E14">
+        <v>39.70785508861198</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>26.44240294009895</v>
+      </c>
+      <c r="H14">
+        <v>7.285680567987493</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13.73413528121082</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>32.09723097128926</v>
+      </c>
+      <c r="C15">
+        <v>23.38127588601745</v>
+      </c>
+      <c r="D15">
+        <v>9.376729840022763</v>
+      </c>
+      <c r="E15">
+        <v>39.45552983315197</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>26.26346597371013</v>
+      </c>
+      <c r="H15">
+        <v>7.274302343035906</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13.63757953146191</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>31.07168481188725</v>
+      </c>
+      <c r="C16">
+        <v>22.6769694815858</v>
+      </c>
+      <c r="D16">
+        <v>9.05652184317324</v>
+      </c>
+      <c r="E16">
+        <v>37.99645106627705</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>25.24034838258761</v>
+      </c>
+      <c r="H16">
+        <v>7.21475941467884</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.14278259730473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>30.42798970051119</v>
+      </c>
+      <c r="C17">
+        <v>22.23541796399106</v>
+      </c>
+      <c r="D17">
+        <v>8.856006374648942</v>
+      </c>
+      <c r="E17">
+        <v>37.08909156965169</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>24.61468227740841</v>
+      </c>
+      <c r="H17">
+        <v>7.183125112278391</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12.95752362138294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>30.05235866292171</v>
+      </c>
+      <c r="C18">
+        <v>21.97794826637789</v>
+      </c>
+      <c r="D18">
+        <v>8.739156162930648</v>
+      </c>
+      <c r="E18">
+        <v>36.56248156364576</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>24.25553174914673</v>
+      </c>
+      <c r="H18">
+        <v>7.166664971459275</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.8538729912897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>29.92424577060212</v>
+      </c>
+      <c r="C19">
+        <v>21.89017082773729</v>
+      </c>
+      <c r="D19">
+        <v>8.699329926507279</v>
+      </c>
+      <c r="E19">
+        <v>36.38335023479907</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>24.13405259138616</v>
+      </c>
+      <c r="H19">
+        <v>7.161383806392221</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.8192747787772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>30.4970694726868</v>
+      </c>
+      <c r="C20">
+        <v>22.28278388123708</v>
+      </c>
+      <c r="D20">
+        <v>8.877508353346288</v>
+      </c>
+      <c r="E20">
+        <v>37.18616545077526</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>24.68121132549522</v>
+      </c>
+      <c r="H20">
+        <v>7.186311630321391</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>12.97694337084953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>32.35754536779335</v>
+      </c>
+      <c r="C21">
+        <v>23.56019744299012</v>
+      </c>
+      <c r="D21">
+        <v>9.458157474351276</v>
+      </c>
+      <c r="E21">
+        <v>39.82862844044611</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>26.52825009236894</v>
+      </c>
+      <c r="H21">
+        <v>7.291239084835485</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>13.78043114105675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>33.52643781857937</v>
+      </c>
+      <c r="C22">
+        <v>24.36427300593938</v>
+      </c>
+      <c r="D22">
+        <v>9.824561952920876</v>
+      </c>
+      <c r="E22">
+        <v>41.51837324251851</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>27.74231991903843</v>
+      </c>
+      <c r="H22">
+        <v>7.376598537186858</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>14.4333443364608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>32.9068300601833</v>
+      </c>
+      <c r="C23">
+        <v>23.93791756050408</v>
+      </c>
+      <c r="D23">
+        <v>9.630179566287458</v>
+      </c>
+      <c r="E23">
+        <v>40.61968304480275</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>27.09366532116081</v>
+      </c>
+      <c r="H23">
+        <v>7.329441240989946</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>14.08491425599611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>30.46585584322053</v>
+      </c>
+      <c r="C24">
+        <v>22.26138101642793</v>
+      </c>
+      <c r="D24">
+        <v>8.867792207481486</v>
+      </c>
+      <c r="E24">
+        <v>37.14229383929704</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>24.65113182261332</v>
+      </c>
+      <c r="H24">
+        <v>7.184865641699144</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12.96815480949217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27.62616240107696</v>
+      </c>
+      <c r="C25">
+        <v>20.31905996402459</v>
+      </c>
+      <c r="D25">
+        <v>7.98713867778473</v>
+      </c>
+      <c r="E25">
+        <v>33.2088097075544</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>22.07727298406081</v>
+      </c>
+      <c r="H25">
+        <v>7.094419629374636</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>12.26391871244083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.35259470222908</v>
+        <v>15.11121702360658</v>
       </c>
       <c r="C2">
-        <v>18.77254353660289</v>
+        <v>11.36169486345986</v>
       </c>
       <c r="D2">
-        <v>7.286326353480015</v>
+        <v>5.957643046581369</v>
       </c>
       <c r="E2">
-        <v>30.13366941733365</v>
+        <v>16.59538305590427</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.38042788514146</v>
+        <v>19.89179704584907</v>
       </c>
       <c r="H2">
-        <v>7.076680292814435</v>
+        <v>11.78354802379599</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.83621915003461</v>
+        <v>16.77201324948246</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69573007330495</v>
+        <v>14.27686674066822</v>
       </c>
       <c r="C3">
-        <v>17.65189016048514</v>
+        <v>10.75757236940133</v>
       </c>
       <c r="D3">
-        <v>6.777663471421618</v>
+        <v>5.833783793116681</v>
       </c>
       <c r="E3">
-        <v>27.92863125406489</v>
+        <v>15.64683130777179</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.27642854297416</v>
+        <v>19.84163559637258</v>
       </c>
       <c r="H3">
-        <v>7.091287560223454</v>
+        <v>11.84814371662591</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.60007667882702</v>
+        <v>16.85584347804583</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.620613145375</v>
+        <v>13.73858331108573</v>
       </c>
       <c r="C4">
-        <v>16.92826725853455</v>
+        <v>10.36741900117662</v>
       </c>
       <c r="D4">
-        <v>6.448391891032735</v>
+        <v>5.758206947671873</v>
       </c>
       <c r="E4">
-        <v>26.51230760176003</v>
+        <v>15.03910494268981</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18.62361852755022</v>
+        <v>19.8258643230265</v>
       </c>
       <c r="H4">
-        <v>7.112110799290269</v>
+        <v>11.89123420485735</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.48028186303601</v>
+        <v>16.91464351562693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.16789694279015</v>
+        <v>13.51286102365914</v>
       </c>
       <c r="C5">
-        <v>16.6245206393201</v>
+        <v>10.20370216282162</v>
       </c>
       <c r="D5">
-        <v>6.309903827161535</v>
+        <v>5.727576091240363</v>
       </c>
       <c r="E5">
-        <v>25.91907418593269</v>
+        <v>14.78535355371565</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>18.36429491920111</v>
+        <v>19.82319804593656</v>
       </c>
       <c r="H5">
-        <v>7.123388760220271</v>
+        <v>11.90965226478539</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.43757060538282</v>
+        <v>16.94043110117973</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.091840556688</v>
+        <v>13.47500102895907</v>
       </c>
       <c r="C6">
-        <v>16.57355109629971</v>
+        <v>10.17623521286279</v>
       </c>
       <c r="D6">
-        <v>6.286646562166047</v>
+        <v>5.722501390816414</v>
       </c>
       <c r="E6">
-        <v>25.81958719517153</v>
+        <v>14.74285887715245</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>18.32165130981259</v>
+        <v>19.82298173485711</v>
       </c>
       <c r="H6">
-        <v>7.125424657177612</v>
+        <v>11.91276230090092</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.43083978693259</v>
+        <v>16.94482290852612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.61456683403846</v>
+        <v>13.73556467559954</v>
       </c>
       <c r="C7">
-        <v>16.92420659863771</v>
+        <v>10.36523003754988</v>
       </c>
       <c r="D7">
-        <v>6.446541690665305</v>
+        <v>5.757793107425508</v>
       </c>
       <c r="E7">
-        <v>26.50437259139989</v>
+        <v>15.03570706133702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18.62009351685468</v>
+        <v>19.82581316898048</v>
       </c>
       <c r="H7">
-        <v>7.112251838603233</v>
+        <v>11.89147912691567</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.47968145167764</v>
+        <v>16.91498392456689</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79325959713885</v>
+        <v>14.82901732974186</v>
       </c>
       <c r="C8">
-        <v>18.39355122660766</v>
+        <v>11.15744003144679</v>
       </c>
       <c r="D8">
-        <v>7.114429900935088</v>
+        <v>5.914866919145019</v>
       </c>
       <c r="E8">
-        <v>29.38609436730426</v>
+        <v>16.27372027605158</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.99480271697651</v>
+        <v>19.87137413819626</v>
       </c>
       <c r="H8">
-        <v>7.079142279274449</v>
+        <v>11.80510676086807</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.74944068340989</v>
+        <v>16.79938716703175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.61079577103709</v>
+        <v>16.76128862464084</v>
       </c>
       <c r="C9">
-        <v>20.99136967509053</v>
+        <v>12.55477626120955</v>
       </c>
       <c r="D9">
-        <v>8.29178277778205</v>
+        <v>6.224565504079205</v>
       </c>
       <c r="E9">
-        <v>34.56025484592822</v>
+        <v>18.6098675262162</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.91877512071035</v>
+        <v>20.08030674715361</v>
       </c>
       <c r="H9">
-        <v>7.116789627718073</v>
+        <v>11.66310405576438</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.48670890629393</v>
+        <v>16.63156430761904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.14440714875406</v>
+        <v>18.0457774974455</v>
       </c>
       <c r="C10">
-        <v>22.72688029978241</v>
+        <v>13.48240434197996</v>
       </c>
       <c r="D10">
-        <v>9.079197672380189</v>
+        <v>6.450437955877692</v>
       </c>
       <c r="E10">
-        <v>38.09936263644377</v>
+        <v>20.26729824874777</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.31183877163544</v>
+        <v>20.30651053177734</v>
       </c>
       <c r="H10">
-        <v>7.218608812768442</v>
+        <v>11.57569581534308</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.16431781043248</v>
+        <v>16.54509321981104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.23974710594714</v>
+        <v>18.59994177894406</v>
       </c>
       <c r="C11">
-        <v>23.47922428596256</v>
+        <v>13.88237657240083</v>
       </c>
       <c r="D11">
-        <v>9.421301992033806</v>
+        <v>6.552300009501745</v>
       </c>
       <c r="E11">
-        <v>39.65965183467731</v>
+        <v>20.97889756704681</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.4081755563088</v>
+        <v>20.42496068047622</v>
       </c>
       <c r="H11">
-        <v>7.283482356603481</v>
+        <v>11.53965645673632</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.7156720413189</v>
+        <v>16.51394121311515</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.64644552432554</v>
+        <v>18.80540317361982</v>
       </c>
       <c r="C12">
-        <v>23.75883210917116</v>
+        <v>14.03063877644278</v>
       </c>
       <c r="D12">
-        <v>9.548599103764374</v>
+        <v>6.590703467256724</v>
       </c>
       <c r="E12">
-        <v>40.24404117173187</v>
+        <v>21.24230585423862</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.82450357841351</v>
+        <v>20.47201694699935</v>
       </c>
       <c r="H12">
-        <v>7.310912856626177</v>
+        <v>11.52654891497538</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.94005996218095</v>
+        <v>16.5033360403837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.55921278045679</v>
+        <v>18.76134926852175</v>
       </c>
       <c r="C13">
-        <v>23.69884772826868</v>
+        <v>13.99885056470708</v>
       </c>
       <c r="D13">
-        <v>9.52128240377327</v>
+        <v>6.582440771614705</v>
       </c>
       <c r="E13">
-        <v>40.11845783347486</v>
+        <v>21.18584509324717</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.73478574041098</v>
+        <v>20.46178524771847</v>
       </c>
       <c r="H13">
-        <v>7.304874741448687</v>
+        <v>11.52934778139948</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.89173961753533</v>
+        <v>16.50556684279704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.27336754617509</v>
+        <v>18.6169334198846</v>
       </c>
       <c r="C14">
-        <v>23.50233340991436</v>
+        <v>13.89463846106364</v>
       </c>
       <c r="D14">
-        <v>9.431819517645733</v>
+        <v>6.555463112118518</v>
       </c>
       <c r="E14">
-        <v>39.70785508861198</v>
+        <v>21.0006895589115</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.44240294009895</v>
+        <v>20.42878812695709</v>
       </c>
       <c r="H14">
-        <v>7.285680567987493</v>
+        <v>11.53856724808841</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.73413528121082</v>
+        <v>16.51304476106891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.09723097128926</v>
+        <v>18.52790168483289</v>
       </c>
       <c r="C15">
-        <v>23.38127588601745</v>
+        <v>13.83038813082581</v>
       </c>
       <c r="D15">
-        <v>9.376729840022763</v>
+        <v>6.538915247849139</v>
       </c>
       <c r="E15">
-        <v>39.45552983315197</v>
+        <v>20.88648841439135</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.26346597371013</v>
+        <v>20.40886201378709</v>
       </c>
       <c r="H15">
-        <v>7.274302343035906</v>
+        <v>11.54428486406438</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.63757953146191</v>
+        <v>16.51778077699928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07168481188725</v>
+        <v>18.00894998564705</v>
       </c>
       <c r="C16">
-        <v>22.6769694815858</v>
+        <v>13.45581925354399</v>
       </c>
       <c r="D16">
-        <v>9.05652184317324</v>
+        <v>6.443759529323128</v>
       </c>
       <c r="E16">
-        <v>37.99645106627705</v>
+        <v>20.21994383027322</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.24034838258761</v>
+        <v>20.2990796969794</v>
       </c>
       <c r="H16">
-        <v>7.21475941467884</v>
+        <v>11.57812636651473</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.14278259730473</v>
+        <v>16.54729502475939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42798970051119</v>
+        <v>17.68282492605185</v>
       </c>
       <c r="C17">
-        <v>22.23541796399106</v>
+        <v>13.2203694278914</v>
       </c>
       <c r="D17">
-        <v>8.856006374648942</v>
+        <v>6.385126551497812</v>
       </c>
       <c r="E17">
-        <v>37.08909156965169</v>
+        <v>19.80021182993872</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.61468227740841</v>
+        <v>20.23569270271395</v>
       </c>
       <c r="H17">
-        <v>7.183125112278391</v>
+        <v>11.59984373419694</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.95752362138294</v>
+        <v>16.56750782151632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.05235866292171</v>
+        <v>17.49241018926383</v>
       </c>
       <c r="C18">
-        <v>21.97794826637789</v>
+        <v>13.08287460684205</v>
       </c>
       <c r="D18">
-        <v>8.739156162930648</v>
+        <v>6.351321131785789</v>
       </c>
       <c r="E18">
-        <v>36.56248156364576</v>
+        <v>19.55480257614744</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.25553174914673</v>
+        <v>20.2007003282147</v>
       </c>
       <c r="H18">
-        <v>7.166664971459275</v>
+        <v>11.61268515997848</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.8538729912897</v>
+        <v>16.57990319614915</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.92424577060212</v>
+        <v>17.42745370882009</v>
       </c>
       <c r="C19">
-        <v>21.89017082773729</v>
+        <v>13.03596680483899</v>
       </c>
       <c r="D19">
-        <v>8.699329926507279</v>
+        <v>6.339862549235982</v>
       </c>
       <c r="E19">
-        <v>36.38335023479907</v>
+        <v>19.47102479350259</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.13405259138616</v>
+        <v>20.1891052227211</v>
       </c>
       <c r="H19">
-        <v>7.161383806392221</v>
+        <v>11.61709305413919</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.8192747787772</v>
+        <v>16.58423176400697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.4970694726868</v>
+        <v>17.71783545253241</v>
       </c>
       <c r="C20">
-        <v>22.28278388123708</v>
+        <v>13.24564800178898</v>
       </c>
       <c r="D20">
-        <v>8.877508353346288</v>
+        <v>6.391376854571843</v>
       </c>
       <c r="E20">
-        <v>37.18616545077526</v>
+        <v>19.84530576951444</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.68121132549522</v>
+        <v>20.24228883613321</v>
       </c>
       <c r="H20">
-        <v>7.186311630321391</v>
+        <v>11.59749561029538</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.97694337084953</v>
+        <v>16.56527638578966</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.35754536779335</v>
+        <v>18.65947131426379</v>
       </c>
       <c r="C21">
-        <v>23.56019744299012</v>
+        <v>13.92533511808278</v>
       </c>
       <c r="D21">
-        <v>9.458157474351276</v>
+        <v>6.563392024834252</v>
       </c>
       <c r="E21">
-        <v>39.82862844044611</v>
+        <v>21.0552383919055</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.52825009236894</v>
+        <v>20.43842074012616</v>
       </c>
       <c r="H21">
-        <v>7.291239084835485</v>
+        <v>11.53584458255239</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.78043114105675</v>
+        <v>16.51081586871878</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.52643781857937</v>
+        <v>19.24928888762082</v>
       </c>
       <c r="C22">
-        <v>24.36427300593938</v>
+        <v>14.35089594716779</v>
       </c>
       <c r="D22">
-        <v>9.824561952920876</v>
+        <v>6.674808380711819</v>
       </c>
       <c r="E22">
-        <v>41.51837324251851</v>
+        <v>21.81069904208332</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.74231991903843</v>
+        <v>20.57941615065623</v>
       </c>
       <c r="H22">
-        <v>7.376598537186858</v>
+        <v>11.49870038241534</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.4333443364608</v>
+        <v>16.48217340032562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.9068300601833</v>
+        <v>18.93684827652883</v>
       </c>
       <c r="C23">
-        <v>23.93791756050408</v>
+        <v>14.12548200584514</v>
       </c>
       <c r="D23">
-        <v>9.630179566287458</v>
+        <v>6.615448516415749</v>
       </c>
       <c r="E23">
-        <v>40.61968304480275</v>
+        <v>21.41071413150972</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.09366532116081</v>
+        <v>20.5030054055013</v>
       </c>
       <c r="H23">
-        <v>7.329441240989946</v>
+        <v>11.5182354117503</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.08491425599611</v>
+        <v>16.49681985532698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46585584322053</v>
+        <v>17.70201628800093</v>
       </c>
       <c r="C24">
-        <v>22.26138101642793</v>
+        <v>13.23422619535557</v>
       </c>
       <c r="D24">
-        <v>8.867792207481486</v>
+        <v>6.388551390068161</v>
       </c>
       <c r="E24">
-        <v>37.14229383929704</v>
+        <v>19.82493157216451</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.65113182261332</v>
+        <v>20.23930220623176</v>
       </c>
       <c r="H24">
-        <v>7.184865641699144</v>
+        <v>11.59855608907689</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.96815480949217</v>
+        <v>16.56628280565215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62616240107696</v>
+        <v>16.26194994408302</v>
       </c>
       <c r="C25">
-        <v>20.31905996402459</v>
+        <v>12.19392569039743</v>
       </c>
       <c r="D25">
-        <v>7.98713867778473</v>
+        <v>6.140888214780666</v>
       </c>
       <c r="E25">
-        <v>33.2088097075544</v>
+        <v>17.96169822624853</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.07727298406081</v>
+        <v>20.01096595254244</v>
       </c>
       <c r="H25">
-        <v>7.094419629374636</v>
+        <v>11.69856502193227</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.26391871244083</v>
+        <v>16.67056337191977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.11121702360658</v>
+        <v>25.35259470222911</v>
       </c>
       <c r="C2">
-        <v>11.36169486345986</v>
+        <v>18.77254353660296</v>
       </c>
       <c r="D2">
-        <v>5.957643046581369</v>
+        <v>7.28632635348</v>
       </c>
       <c r="E2">
-        <v>16.59538305590427</v>
+        <v>30.13366941733367</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.89179704584907</v>
+        <v>20.38042788514144</v>
       </c>
       <c r="H2">
-        <v>11.78354802379599</v>
+        <v>7.076680292814428</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.77201324948246</v>
+        <v>11.8362191500346</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.27686674066822</v>
+        <v>23.69573007330503</v>
       </c>
       <c r="C3">
-        <v>10.75757236940133</v>
+        <v>17.65189016048511</v>
       </c>
       <c r="D3">
-        <v>5.833783793116681</v>
+        <v>6.777663471421684</v>
       </c>
       <c r="E3">
-        <v>15.64683130777179</v>
+        <v>27.92863125406499</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.84163559637258</v>
+        <v>19.2764285429741</v>
       </c>
       <c r="H3">
-        <v>11.84814371662591</v>
+        <v>7.091287560223355</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.85584347804583</v>
+        <v>11.60007667882689</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.73858331108573</v>
+        <v>22.62061314537496</v>
       </c>
       <c r="C4">
-        <v>10.36741900117662</v>
+        <v>16.92826725853459</v>
       </c>
       <c r="D4">
-        <v>5.758206947671873</v>
+        <v>6.448391891032751</v>
       </c>
       <c r="E4">
-        <v>15.03910494268981</v>
+        <v>26.51230760176006</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.8258643230265</v>
+        <v>18.62361852755031</v>
       </c>
       <c r="H4">
-        <v>11.89123420485735</v>
+        <v>7.112110799290288</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.91464351562693</v>
+        <v>11.48028186303604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.51286102365914</v>
+        <v>22.16789694279019</v>
       </c>
       <c r="C5">
-        <v>10.20370216282162</v>
+        <v>16.6245206393201</v>
       </c>
       <c r="D5">
-        <v>5.727576091240363</v>
+        <v>6.309903827161582</v>
       </c>
       <c r="E5">
-        <v>14.78535355371565</v>
+        <v>25.91907418593269</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.82319804593656</v>
+        <v>18.36429491920103</v>
       </c>
       <c r="H5">
-        <v>11.90965226478539</v>
+        <v>7.12338876022026</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.94043110117973</v>
+        <v>11.43757060538275</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.47500102895907</v>
+        <v>22.09184055668802</v>
       </c>
       <c r="C6">
-        <v>10.17623521286279</v>
+        <v>16.5735510962996</v>
       </c>
       <c r="D6">
-        <v>5.722501390816414</v>
+        <v>6.286646562166077</v>
       </c>
       <c r="E6">
-        <v>14.74285887715245</v>
+        <v>25.8195871951715</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.82298173485711</v>
+        <v>18.3216513098125</v>
       </c>
       <c r="H6">
-        <v>11.91276230090092</v>
+        <v>7.125424657177608</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.94482290852612</v>
+        <v>11.43083978693257</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.73556467559954</v>
+        <v>22.61456683403847</v>
       </c>
       <c r="C7">
-        <v>10.36523003754988</v>
+        <v>16.9242065986378</v>
       </c>
       <c r="D7">
-        <v>5.757793107425508</v>
+        <v>6.446541690665317</v>
       </c>
       <c r="E7">
-        <v>15.03570706133702</v>
+        <v>26.50437259139998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.82581316898048</v>
+        <v>18.6200935168547</v>
       </c>
       <c r="H7">
-        <v>11.89147912691567</v>
+        <v>7.112251838603193</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.91498392456689</v>
+        <v>11.4796814516776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.82901732974186</v>
+        <v>24.79325959713884</v>
       </c>
       <c r="C8">
-        <v>11.15744003144679</v>
+        <v>18.39355122660765</v>
       </c>
       <c r="D8">
-        <v>5.914866919145019</v>
+        <v>7.114429900935206</v>
       </c>
       <c r="E8">
-        <v>16.27372027605158</v>
+        <v>29.38609436730431</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.87137413819626</v>
+        <v>19.99480271697633</v>
       </c>
       <c r="H8">
-        <v>11.80510676086807</v>
+        <v>7.079142279274323</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.79938716703175</v>
+        <v>11.74944068340977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.76128862464084</v>
+        <v>28.61079577103703</v>
       </c>
       <c r="C9">
-        <v>12.55477626120955</v>
+        <v>20.99136967509057</v>
       </c>
       <c r="D9">
-        <v>6.224565504079205</v>
+        <v>8.291782777782096</v>
       </c>
       <c r="E9">
-        <v>18.6098675262162</v>
+        <v>34.56025484592816</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>20.08030674715361</v>
+        <v>22.91877512071032</v>
       </c>
       <c r="H9">
-        <v>11.66310405576438</v>
+        <v>7.116789627718189</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.63156430761904</v>
+        <v>12.48670890629398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.0457774974455</v>
+        <v>31.14440714875412</v>
       </c>
       <c r="C10">
-        <v>13.48240434197996</v>
+        <v>22.72688029978231</v>
       </c>
       <c r="D10">
-        <v>6.450437955877692</v>
+        <v>9.079197672380154</v>
       </c>
       <c r="E10">
-        <v>20.26729824874777</v>
+        <v>38.09936263644378</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>20.30651053177734</v>
+        <v>25.31183877163537</v>
       </c>
       <c r="H10">
-        <v>11.57569581534308</v>
+        <v>7.218608812768383</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.54509321981104</v>
+        <v>13.16431781043245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.59994177894406</v>
+        <v>32.2397471059471</v>
       </c>
       <c r="C11">
-        <v>13.88237657240083</v>
+        <v>23.47922428596265</v>
       </c>
       <c r="D11">
-        <v>6.552300009501745</v>
+        <v>9.421301992033875</v>
       </c>
       <c r="E11">
-        <v>20.97889756704681</v>
+        <v>39.65965183467731</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>20.42496068047622</v>
+        <v>26.40817555630869</v>
       </c>
       <c r="H11">
-        <v>11.53965645673632</v>
+        <v>7.283482356603443</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.51394121311515</v>
+        <v>13.7156720413189</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.80540317361982</v>
+        <v>32.6464455243255</v>
       </c>
       <c r="C12">
-        <v>14.03063877644278</v>
+        <v>23.75883210917117</v>
       </c>
       <c r="D12">
-        <v>6.590703467256724</v>
+        <v>9.548599103764392</v>
       </c>
       <c r="E12">
-        <v>21.24230585423862</v>
+        <v>40.24404117173189</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.47201694699935</v>
+        <v>26.82450357841354</v>
       </c>
       <c r="H12">
-        <v>11.52654891497538</v>
+        <v>7.310912856626177</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.5033360403837</v>
+        <v>13.94005996218096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.76134926852175</v>
+        <v>32.55921278045678</v>
       </c>
       <c r="C13">
-        <v>13.99885056470708</v>
+        <v>23.69884772826869</v>
       </c>
       <c r="D13">
-        <v>6.582440771614705</v>
+        <v>9.521282403773302</v>
       </c>
       <c r="E13">
-        <v>21.18584509324717</v>
+        <v>40.11845783347503</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20.46178524771847</v>
+        <v>26.73478574041098</v>
       </c>
       <c r="H13">
-        <v>11.52934778139948</v>
+        <v>7.304874741448668</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.50556684279704</v>
+        <v>13.89173961753536</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6169334198846</v>
+        <v>32.27336754617507</v>
       </c>
       <c r="C14">
-        <v>13.89463846106364</v>
+        <v>23.50233340991438</v>
       </c>
       <c r="D14">
-        <v>6.555463112118518</v>
+        <v>9.431819517645756</v>
       </c>
       <c r="E14">
-        <v>21.0006895589115</v>
+        <v>39.70785508861199</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.42878812695709</v>
+        <v>26.44240294009905</v>
       </c>
       <c r="H14">
-        <v>11.53856724808841</v>
+        <v>7.285680567987514</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.51304476106891</v>
+        <v>13.73413528121083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.52790168483289</v>
+        <v>32.09723097128916</v>
       </c>
       <c r="C15">
-        <v>13.83038813082581</v>
+        <v>23.38127588601739</v>
       </c>
       <c r="D15">
-        <v>6.538915247849139</v>
+        <v>9.376729840022712</v>
       </c>
       <c r="E15">
-        <v>20.88648841439135</v>
+        <v>39.45552983315189</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.40886201378709</v>
+        <v>26.26346597370979</v>
       </c>
       <c r="H15">
-        <v>11.54428486406438</v>
+        <v>7.274302343035985</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.51778077699928</v>
+        <v>13.63757953146175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00894998564705</v>
+        <v>31.07168481188728</v>
       </c>
       <c r="C16">
-        <v>13.45581925354399</v>
+        <v>22.67696948158586</v>
       </c>
       <c r="D16">
-        <v>6.443759529323128</v>
+        <v>9.056521843173249</v>
       </c>
       <c r="E16">
-        <v>20.21994383027322</v>
+        <v>37.99645106627707</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.2990796969794</v>
+        <v>25.24034838258761</v>
       </c>
       <c r="H16">
-        <v>11.57812636651473</v>
+        <v>7.214759414678825</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.54729502475939</v>
+        <v>13.1427825973047</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.68282492605185</v>
+        <v>30.42798970051115</v>
       </c>
       <c r="C17">
-        <v>13.2203694278914</v>
+        <v>22.23541796399096</v>
       </c>
       <c r="D17">
-        <v>6.385126551497812</v>
+        <v>8.856006374648883</v>
       </c>
       <c r="E17">
-        <v>19.80021182993872</v>
+        <v>37.08909156965166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.23569270271395</v>
+        <v>24.61468227740843</v>
       </c>
       <c r="H17">
-        <v>11.59984373419694</v>
+        <v>7.183125112278415</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.56750782151632</v>
+        <v>12.95752362138302</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.49241018926383</v>
+        <v>30.05235866292172</v>
       </c>
       <c r="C18">
-        <v>13.08287460684205</v>
+        <v>21.97794826637787</v>
       </c>
       <c r="D18">
-        <v>6.351321131785789</v>
+        <v>8.739156162930641</v>
       </c>
       <c r="E18">
-        <v>19.55480257614744</v>
+        <v>36.56248156364576</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>20.2007003282147</v>
+        <v>24.25553174914666</v>
       </c>
       <c r="H18">
-        <v>11.61268515997848</v>
+        <v>7.166664971459269</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.57990319614915</v>
+        <v>12.8538729912897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42745370882009</v>
+        <v>29.92424577060209</v>
       </c>
       <c r="C19">
-        <v>13.03596680483899</v>
+        <v>21.89017082773725</v>
       </c>
       <c r="D19">
-        <v>6.339862549235982</v>
+        <v>8.699329926507298</v>
       </c>
       <c r="E19">
-        <v>19.47102479350259</v>
+        <v>36.3833502347991</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>20.1891052227211</v>
+        <v>24.13405259138611</v>
       </c>
       <c r="H19">
-        <v>11.61709305413919</v>
+        <v>7.161383806392192</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.58423176400697</v>
+        <v>12.81927477877722</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.71783545253241</v>
+        <v>30.49706947268682</v>
       </c>
       <c r="C20">
-        <v>13.24564800178898</v>
+        <v>22.28278388123705</v>
       </c>
       <c r="D20">
-        <v>6.391376854571843</v>
+        <v>8.877508353346363</v>
       </c>
       <c r="E20">
-        <v>19.84530576951444</v>
+        <v>37.18616545077524</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>20.24228883613321</v>
+        <v>24.6812113254951</v>
       </c>
       <c r="H20">
-        <v>11.59749561029538</v>
+        <v>7.186311630321374</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.56527638578966</v>
+        <v>12.97694337084949</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.65947131426379</v>
+        <v>32.35754536779333</v>
       </c>
       <c r="C21">
-        <v>13.92533511808278</v>
+        <v>23.56019744299009</v>
       </c>
       <c r="D21">
-        <v>6.563392024834252</v>
+        <v>9.458157474351285</v>
       </c>
       <c r="E21">
-        <v>21.0552383919055</v>
+        <v>39.82862844044612</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>20.43842074012616</v>
+        <v>26.5282500923688</v>
       </c>
       <c r="H21">
-        <v>11.53584458255239</v>
+        <v>7.2912390848355</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.51081586871878</v>
+        <v>13.78043114105668</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.24928888762082</v>
+        <v>33.5264378185794</v>
       </c>
       <c r="C22">
-        <v>14.35089594716779</v>
+        <v>24.36427300593934</v>
       </c>
       <c r="D22">
-        <v>6.674808380711819</v>
+        <v>9.824561952920844</v>
       </c>
       <c r="E22">
-        <v>21.81069904208332</v>
+        <v>41.51837324251849</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>20.57941615065623</v>
+        <v>27.7423199190383</v>
       </c>
       <c r="H22">
-        <v>11.49870038241534</v>
+        <v>7.376598537186875</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.48217340032562</v>
+        <v>14.43334433646074</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93684827652883</v>
+        <v>32.90683006018332</v>
       </c>
       <c r="C23">
-        <v>14.12548200584514</v>
+        <v>23.93791756050409</v>
       </c>
       <c r="D23">
-        <v>6.615448516415749</v>
+        <v>9.630179566287437</v>
       </c>
       <c r="E23">
-        <v>21.41071413150972</v>
+        <v>40.61968304480272</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>20.5030054055013</v>
+        <v>27.09366532116076</v>
       </c>
       <c r="H23">
-        <v>11.5182354117503</v>
+        <v>7.329441240989955</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.49681985532698</v>
+        <v>14.08491425599608</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.70201628800093</v>
+        <v>30.46585584322053</v>
       </c>
       <c r="C24">
-        <v>13.23422619535557</v>
+        <v>22.26138101642785</v>
       </c>
       <c r="D24">
-        <v>6.388551390068161</v>
+        <v>8.867792207481411</v>
       </c>
       <c r="E24">
-        <v>19.82493157216451</v>
+        <v>37.14229383929703</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>20.23930220623176</v>
+        <v>24.65113182261333</v>
       </c>
       <c r="H24">
-        <v>11.59855608907689</v>
+        <v>7.184865641699159</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.56628280565215</v>
+        <v>12.96815480949221</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.26194994408302</v>
+        <v>27.62616240107695</v>
       </c>
       <c r="C25">
-        <v>12.19392569039743</v>
+        <v>20.31905996402465</v>
       </c>
       <c r="D25">
-        <v>6.140888214780666</v>
+        <v>7.987138677784811</v>
       </c>
       <c r="E25">
-        <v>17.96169822624853</v>
+        <v>33.20880970755448</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.01096595254244</v>
+        <v>22.07727298406078</v>
       </c>
       <c r="H25">
-        <v>11.69856502193227</v>
+        <v>7.094419629374614</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.67056337191977</v>
+        <v>12.26391871244078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.35259470222911</v>
+        <v>12.97209107489711</v>
       </c>
       <c r="C2">
-        <v>18.77254353660296</v>
+        <v>10.65386202693802</v>
       </c>
       <c r="D2">
-        <v>7.28632635348</v>
+        <v>7.046396178804764</v>
       </c>
       <c r="E2">
-        <v>30.13366941733367</v>
+        <v>28.0008464746405</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.38042788514144</v>
+        <v>47.76528442913767</v>
       </c>
       <c r="H2">
-        <v>7.076680292814428</v>
+        <v>2.284520862964427</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.996506937322196</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.35580779237845</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.78459321604215</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.6717730104915</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.8362191500346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69573007330503</v>
+        <v>12.1297721559692</v>
       </c>
       <c r="C3">
-        <v>17.65189016048511</v>
+        <v>9.926500547427519</v>
       </c>
       <c r="D3">
-        <v>6.777663471421684</v>
+        <v>6.55840307999654</v>
       </c>
       <c r="E3">
-        <v>27.92863125406499</v>
+        <v>26.08636436357119</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.2764285429741</v>
+        <v>45.69040107939872</v>
       </c>
       <c r="H3">
-        <v>7.091287560223355</v>
+        <v>2.007776497887439</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.22558292033957</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.01148460678511</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.20065304084548</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.88631655296877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.60007667882689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.62061314537496</v>
+        <v>11.58185035725164</v>
       </c>
       <c r="C4">
-        <v>16.92826725853459</v>
+        <v>9.459738664854214</v>
       </c>
       <c r="D4">
-        <v>6.448391891032751</v>
+        <v>6.25686344803439</v>
       </c>
       <c r="E4">
-        <v>26.51230760176006</v>
+        <v>24.84413191653801</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18.62361852755031</v>
+        <v>44.36931776425797</v>
       </c>
       <c r="H4">
-        <v>7.112110799290288</v>
+        <v>1.832362531675255</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.371191730904608</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.79648611164521</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.83274676669682</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.3785759797682</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.48028186303604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.16789694279019</v>
+        <v>11.3487041110183</v>
       </c>
       <c r="C5">
-        <v>16.6245206393201</v>
+        <v>9.27333004065429</v>
       </c>
       <c r="D5">
-        <v>6.309903827161582</v>
+        <v>6.14439715169179</v>
       </c>
       <c r="E5">
-        <v>25.91907418593269</v>
+        <v>24.32070038647599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>18.36429491920103</v>
+        <v>43.77609115331982</v>
       </c>
       <c r="H5">
-        <v>7.12338876022026</v>
+        <v>1.759194812082461</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.43471671588464</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.69917857387634</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.66155948845249</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.16667806283864</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.43757060538275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09184055668802</v>
+        <v>11.30694292913057</v>
       </c>
       <c r="C6">
-        <v>16.5735510962996</v>
+        <v>9.252963919995643</v>
       </c>
       <c r="D6">
-        <v>6.286646562166077</v>
+        <v>6.125546495624504</v>
       </c>
       <c r="E6">
-        <v>25.8195871951715</v>
+        <v>24.23238432869449</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>18.3216513098125</v>
+        <v>43.62363008764262</v>
       </c>
       <c r="H6">
-        <v>7.125424657177608</v>
+        <v>1.746627844427009</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.449076557803658</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.6721347957637</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.60973144681066</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.13282695552961</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.43083978693257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.61456683403847</v>
+        <v>11.57185348868233</v>
       </c>
       <c r="C7">
-        <v>16.9242065986378</v>
+        <v>9.486245113656645</v>
       </c>
       <c r="D7">
-        <v>6.446541690665317</v>
+        <v>6.255274386350893</v>
       </c>
       <c r="E7">
-        <v>26.50437259139998</v>
+        <v>24.83611696125121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18.6200935168547</v>
+        <v>44.21799750165712</v>
       </c>
       <c r="H7">
-        <v>7.112251838603193</v>
+        <v>1.830485992800774</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.381988692146064</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.76582376394409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.76742039047593</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.38033732829581</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.4796814516776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79325959713884</v>
+        <v>12.67957042792632</v>
       </c>
       <c r="C8">
-        <v>18.39355122660765</v>
+        <v>10.44245101877373</v>
       </c>
       <c r="D8">
-        <v>7.114429900935206</v>
+        <v>6.881417824452448</v>
       </c>
       <c r="E8">
-        <v>29.38609436730431</v>
+        <v>27.35316351154921</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19.99480271697633</v>
+        <v>46.88009240334489</v>
       </c>
       <c r="H8">
-        <v>7.079142279274323</v>
+        <v>2.189073315748094</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.087427482085235</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>14.2002110636335</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.5044550488658</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.41186691141948</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.74944068340977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.61079577103703</v>
+        <v>14.62044668859483</v>
       </c>
       <c r="C9">
-        <v>20.99136967509057</v>
+        <v>12.11390101309277</v>
       </c>
       <c r="D9">
-        <v>8.291782777782096</v>
+        <v>8.008202466757629</v>
       </c>
       <c r="E9">
-        <v>34.56025484592816</v>
+        <v>31.76711660390066</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.91877512071032</v>
+        <v>51.94543784555828</v>
       </c>
       <c r="H9">
-        <v>7.116789627718189</v>
+        <v>2.851773074547356</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.531540499805156</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.07120125057753</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.97851130038089</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.22552597751557</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.48670890629398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.14440714875412</v>
+        <v>15.90340203407162</v>
       </c>
       <c r="C10">
-        <v>22.72688029978231</v>
+        <v>13.19971080105369</v>
       </c>
       <c r="D10">
-        <v>9.079197672380154</v>
+        <v>8.757067125580198</v>
       </c>
       <c r="E10">
-        <v>38.09936263644378</v>
+        <v>33.81585601417137</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.31183877163537</v>
+        <v>54.73721638126852</v>
       </c>
       <c r="H10">
-        <v>7.218608812768383</v>
+        <v>3.277409073334304</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.794769171069678</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.54310551358949</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.73855413591798</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.42013747197332</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.16431781043245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.2397471059471</v>
+        <v>16.49479014495399</v>
       </c>
       <c r="C11">
-        <v>23.47922428596265</v>
+        <v>13.19786427262694</v>
       </c>
       <c r="D11">
-        <v>9.421301992033875</v>
+        <v>9.06902967740116</v>
       </c>
       <c r="E11">
-        <v>39.65965183467731</v>
+        <v>27.17092464879709</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.40817555630869</v>
+        <v>50.54840342035658</v>
       </c>
       <c r="H11">
-        <v>7.283482356603443</v>
+        <v>3.759493481826849</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.866063394036845</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.57731395248335</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.93284063323357</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.79533534894761</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.7156720413189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.6464455243255</v>
+        <v>16.74676991487139</v>
       </c>
       <c r="C12">
-        <v>23.75883210917117</v>
+        <v>12.94683142695307</v>
       </c>
       <c r="D12">
-        <v>9.548599103764392</v>
+        <v>9.180450672050522</v>
       </c>
       <c r="E12">
-        <v>40.24404117173189</v>
+        <v>21.12242695582351</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.82450357841354</v>
+        <v>46.59195205360528</v>
       </c>
       <c r="H12">
-        <v>7.310912856626177</v>
+        <v>4.719379629283285</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.856302045062373</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.70624580426098</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.35039382035582</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.86893620395239</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.94005996218096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.55921278045678</v>
+        <v>16.75343670752502</v>
       </c>
       <c r="C13">
-        <v>23.69884772826869</v>
+        <v>12.51510390937855</v>
       </c>
       <c r="D13">
-        <v>9.521282403773302</v>
+        <v>9.147847292803046</v>
       </c>
       <c r="E13">
-        <v>40.11845783347503</v>
+        <v>14.98779580135127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.73478574041098</v>
+        <v>42.29768823003926</v>
       </c>
       <c r="H13">
-        <v>7.304874741448668</v>
+        <v>5.861300143905298</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.787889703964249</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.80592582510348</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.74311262315854</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.72350155579778</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.89173961753536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.27336754617507</v>
+        <v>16.64666209778546</v>
       </c>
       <c r="C14">
-        <v>23.50233340991438</v>
+        <v>12.13355311173965</v>
       </c>
       <c r="D14">
-        <v>9.431819517645756</v>
+        <v>9.059796355711198</v>
       </c>
       <c r="E14">
-        <v>39.70785508861199</v>
+        <v>10.61133104511175</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.44240294009905</v>
+        <v>39.06953862141051</v>
       </c>
       <c r="H14">
-        <v>7.285680567987514</v>
+        <v>6.726335390509656</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.71600047327081</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.15664089837214</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.5974204978752</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.5231157260912</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.73413528121083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.09723097128916</v>
+        <v>16.56513192913994</v>
       </c>
       <c r="C15">
-        <v>23.38127588601739</v>
+        <v>12.00790956687621</v>
       </c>
       <c r="D15">
-        <v>9.376729840022712</v>
+        <v>9.007144068834522</v>
       </c>
       <c r="E15">
-        <v>39.45552983315189</v>
+        <v>9.517916791650002</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.26346597370979</v>
+        <v>38.16124057226776</v>
       </c>
       <c r="H15">
-        <v>7.274302343035985</v>
+        <v>6.924202750690925</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.686288979786505</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.98305810523769</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.29288729658611</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.42744392474633</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.63757953146175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07168481188728</v>
+        <v>16.04072138926543</v>
       </c>
       <c r="C16">
-        <v>22.67696948158586</v>
+        <v>11.63092950889117</v>
       </c>
       <c r="D16">
-        <v>9.056521843173249</v>
+        <v>8.706140670636911</v>
       </c>
       <c r="E16">
-        <v>37.99645106627707</v>
+        <v>9.364096643218774</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.24034838258761</v>
+        <v>37.53914781092261</v>
       </c>
       <c r="H16">
-        <v>7.214759414678825</v>
+        <v>6.642556991255338</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.549205911157347</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.92737942181719</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.22405585667855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.96240011601999</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.1427825973047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42798970051115</v>
+        <v>15.68773301489401</v>
       </c>
       <c r="C17">
-        <v>22.23541796399096</v>
+        <v>11.54988932429918</v>
       </c>
       <c r="D17">
-        <v>8.856006374648883</v>
+        <v>8.519166496001979</v>
       </c>
       <c r="E17">
-        <v>37.08909156965166</v>
+        <v>11.68886444482266</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.61468227740843</v>
+        <v>38.83010824108104</v>
       </c>
       <c r="H17">
-        <v>7.183125112278415</v>
+        <v>5.913068735148936</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.536193526957545</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.23141849101463</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.77959455809184</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.7090530849078</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.95752362138302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.05235866292172</v>
+        <v>15.45624767114786</v>
       </c>
       <c r="C18">
-        <v>21.97794826637787</v>
+        <v>11.70515917571011</v>
       </c>
       <c r="D18">
-        <v>8.739156162930641</v>
+        <v>8.413358537582683</v>
       </c>
       <c r="E18">
-        <v>36.56248156364576</v>
+        <v>16.52707716941527</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.25553174914666</v>
+        <v>42.03108115759389</v>
       </c>
       <c r="H18">
-        <v>7.166664971459269</v>
+        <v>4.778940003556632</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.538802748474791</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.90925916630189</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.00430193586551</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.61518044225574</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.8538729912897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.92424577060209</v>
+        <v>15.33659578092956</v>
       </c>
       <c r="C19">
-        <v>21.89017082773725</v>
+        <v>12.08600812085634</v>
       </c>
       <c r="D19">
-        <v>8.699329926507298</v>
+        <v>8.382582454898737</v>
       </c>
       <c r="E19">
-        <v>36.3833502347991</v>
+        <v>22.98339544856026</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.13405259138611</v>
+        <v>46.3002120538582</v>
       </c>
       <c r="H19">
-        <v>7.161383806392192</v>
+        <v>3.6276818679757</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.511273912729208</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.80445375370101</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.61281590315149</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.67021402914612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.81927477877722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49706947268682</v>
+        <v>15.55968432161269</v>
       </c>
       <c r="C20">
-        <v>22.28278388123705</v>
+        <v>12.98599398202263</v>
       </c>
       <c r="D20">
-        <v>8.877508353346363</v>
+        <v>8.56505216039238</v>
       </c>
       <c r="E20">
-        <v>37.18616545077524</v>
+        <v>33.24670519144317</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.6812113254951</v>
+        <v>53.62052024808717</v>
       </c>
       <c r="H20">
-        <v>7.186311630321374</v>
+        <v>3.161892009297639</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.708603176120375</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.33306926354818</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.35689839104209</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.1248346503997</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.97694337084949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.35754536779333</v>
+        <v>16.49536869741702</v>
       </c>
       <c r="C21">
-        <v>23.56019744299009</v>
+        <v>13.86589179705701</v>
       </c>
       <c r="D21">
-        <v>9.458157474351285</v>
+        <v>9.118181307365044</v>
       </c>
       <c r="E21">
-        <v>39.82862844044612</v>
+        <v>36.1001121118723</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.5282500923688</v>
+        <v>56.72275336384877</v>
       </c>
       <c r="H21">
-        <v>7.2912390848355</v>
+        <v>3.541583607076563</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.001446187148309</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.91315449850353</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.33804187706511</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.02807284590291</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.78043114105668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.5264378185794</v>
+        <v>17.09040109224294</v>
       </c>
       <c r="C22">
-        <v>24.36427300593934</v>
+        <v>14.36855232802781</v>
       </c>
       <c r="D22">
-        <v>9.824561952920844</v>
+        <v>9.465815296678279</v>
       </c>
       <c r="E22">
-        <v>41.51837324251849</v>
+        <v>37.45516165514017</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.7423199190383</v>
+        <v>58.52711261658996</v>
       </c>
       <c r="H22">
-        <v>7.376598537186875</v>
+        <v>3.767427894270001</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.182168133648639</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.25161483352981</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.91346891613758</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.5835941842094</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.43334433646074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.90683006018332</v>
+        <v>16.78118118539857</v>
       </c>
       <c r="C23">
-        <v>23.93791756050409</v>
+        <v>14.07754210399028</v>
       </c>
       <c r="D23">
-        <v>9.630179566287437</v>
+        <v>9.281665703229882</v>
       </c>
       <c r="E23">
-        <v>40.61968304480272</v>
+        <v>36.73805594613997</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.09366532116076</v>
+        <v>57.70173590447499</v>
       </c>
       <c r="H23">
-        <v>7.329441240989955</v>
+        <v>3.648131009113225</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.082664568207082</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.10119793895186</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.67115138063174</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.28514711648763</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.08491425599608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46585584322053</v>
+        <v>15.549544653054</v>
       </c>
       <c r="C24">
-        <v>22.26138101642785</v>
+        <v>12.98007809006331</v>
       </c>
       <c r="D24">
-        <v>8.867792207481411</v>
+        <v>8.557167214234083</v>
       </c>
       <c r="E24">
-        <v>37.14229383929703</v>
+        <v>33.91183471625263</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.65113182261333</v>
+        <v>54.27327338417914</v>
       </c>
       <c r="H24">
-        <v>7.184865641699159</v>
+        <v>3.187948118903165</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.706833251675676</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.47660807387279</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.63401447547587</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.11747756919153</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.96815480949221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62616240107695</v>
+        <v>14.1106101537983</v>
       </c>
       <c r="C25">
-        <v>20.31905996402465</v>
+        <v>11.72142788612757</v>
       </c>
       <c r="D25">
-        <v>7.987138677784811</v>
+        <v>7.71691038132847</v>
       </c>
       <c r="E25">
-        <v>33.20880970755448</v>
+        <v>30.62643854665908</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.07727298406078</v>
+        <v>50.39146448990134</v>
       </c>
       <c r="H25">
-        <v>7.094419629374614</v>
+        <v>2.675261609695632</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.697374926349074</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.79011932293318</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.48350477852753</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.76335718307825</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.26391871244078</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.97209107489711</v>
+        <v>12.82734410098316</v>
       </c>
       <c r="C2">
-        <v>10.65386202693802</v>
+        <v>11.67457116751456</v>
       </c>
       <c r="D2">
-        <v>7.046396178804764</v>
+        <v>7.052474571042815</v>
       </c>
       <c r="E2">
-        <v>28.0008464746405</v>
+        <v>28.04997796765367</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.76528442913767</v>
+        <v>41.29958217006748</v>
       </c>
       <c r="H2">
-        <v>2.284520862964427</v>
+        <v>2.325721275931111</v>
       </c>
       <c r="I2">
-        <v>2.996506937322196</v>
+        <v>2.859593867119929</v>
       </c>
       <c r="J2">
-        <v>14.35580779237845</v>
+        <v>13.28486433519111</v>
       </c>
       <c r="K2">
-        <v>22.78459321604215</v>
+        <v>19.86988941497154</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.21106352634334</v>
       </c>
       <c r="M2">
-        <v>12.6717730104915</v>
+        <v>13.37774017025082</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.90286240650787</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.1297721559692</v>
+        <v>12.02889286618645</v>
       </c>
       <c r="C3">
-        <v>9.926500547427519</v>
+        <v>10.82939636181226</v>
       </c>
       <c r="D3">
-        <v>6.55840307999654</v>
+        <v>6.566086155924388</v>
       </c>
       <c r="E3">
-        <v>26.08636436357119</v>
+        <v>26.15218304577522</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.69040107939872</v>
+        <v>39.88343168444566</v>
       </c>
       <c r="H3">
-        <v>2.007776497887439</v>
+        <v>2.063863057076753</v>
       </c>
       <c r="I3">
-        <v>3.22558292033957</v>
+        <v>3.053923953194162</v>
       </c>
       <c r="J3">
-        <v>14.01148460678511</v>
+        <v>13.03638565655013</v>
       </c>
       <c r="K3">
-        <v>22.20065304084548</v>
+        <v>19.57695118141398</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.13693696206123</v>
       </c>
       <c r="M3">
-        <v>11.88631655296877</v>
+        <v>13.00704363280604</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.10609615188303</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.58185035725164</v>
+        <v>11.50975449760718</v>
       </c>
       <c r="C4">
-        <v>9.459738664854214</v>
+        <v>10.28504827467219</v>
       </c>
       <c r="D4">
-        <v>6.25686344803439</v>
+        <v>6.262881382344107</v>
       </c>
       <c r="E4">
-        <v>24.84413191653801</v>
+        <v>24.9200890878498</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.36931776425797</v>
+        <v>38.98854106477795</v>
       </c>
       <c r="H4">
-        <v>1.832362531675255</v>
+        <v>1.897718346787528</v>
       </c>
       <c r="I4">
-        <v>3.371191730904608</v>
+        <v>3.177926789937449</v>
       </c>
       <c r="J4">
-        <v>13.79648611164521</v>
+        <v>12.87933522428959</v>
       </c>
       <c r="K4">
-        <v>21.83274676669682</v>
+        <v>19.39173339228722</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.08317736448715</v>
       </c>
       <c r="M4">
-        <v>11.3785759797682</v>
+        <v>12.79069144968019</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.59077628619805</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3487041110183</v>
+        <v>11.28908992477139</v>
       </c>
       <c r="C5">
-        <v>9.27333004065429</v>
+        <v>10.06494479076047</v>
       </c>
       <c r="D5">
-        <v>6.14439715169179</v>
+        <v>6.150510806157808</v>
       </c>
       <c r="E5">
-        <v>24.32070038647599</v>
+        <v>24.40082186275023</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.77609115331982</v>
+        <v>38.58061096374665</v>
       </c>
       <c r="H5">
-        <v>1.759194812082461</v>
+        <v>1.828409458750633</v>
       </c>
       <c r="I5">
-        <v>3.43471671588464</v>
+        <v>3.232989655873499</v>
       </c>
       <c r="J5">
-        <v>13.69917857387634</v>
+        <v>12.80680190233761</v>
       </c>
       <c r="K5">
-        <v>21.66155948845249</v>
+        <v>19.2994577198022</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.04655058393755</v>
       </c>
       <c r="M5">
-        <v>11.16667806283864</v>
+        <v>12.69482663615757</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.37549657973216</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.30694292913057</v>
+        <v>11.24974872507234</v>
       </c>
       <c r="C6">
-        <v>9.252963919995643</v>
+        <v>10.03798039085524</v>
       </c>
       <c r="D6">
-        <v>6.125546495624504</v>
+        <v>6.13167738653159</v>
       </c>
       <c r="E6">
-        <v>24.23238432869449</v>
+        <v>24.31324789203861</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.62363008764262</v>
+        <v>38.46707761735617</v>
       </c>
       <c r="H6">
-        <v>1.746627844427009</v>
+        <v>1.816539923997212</v>
       </c>
       <c r="I6">
-        <v>3.449076557803658</v>
+        <v>3.246497792669229</v>
       </c>
       <c r="J6">
-        <v>13.6721347957637</v>
+        <v>12.78559277549223</v>
       </c>
       <c r="K6">
-        <v>21.60973144681066</v>
+        <v>19.26515084095622</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.02492556106374</v>
       </c>
       <c r="M6">
-        <v>11.13282695552961</v>
+        <v>12.66589473042266</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.34089177004098</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57185348868233</v>
+        <v>11.50264482386312</v>
       </c>
       <c r="C7">
-        <v>9.486245113656645</v>
+        <v>10.29641615934268</v>
       </c>
       <c r="D7">
-        <v>6.255274386350893</v>
+        <v>6.261260065736924</v>
       </c>
       <c r="E7">
-        <v>24.83611696125121</v>
+        <v>24.91167150808771</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.21799750165712</v>
+        <v>38.90779603216415</v>
       </c>
       <c r="H7">
-        <v>1.830485992800774</v>
+        <v>1.895532111479234</v>
       </c>
       <c r="I7">
-        <v>3.381988692146064</v>
+        <v>3.190893070841419</v>
       </c>
       <c r="J7">
-        <v>13.76582376394409</v>
+        <v>12.79093465603427</v>
       </c>
       <c r="K7">
-        <v>21.76742039047593</v>
+        <v>19.31445348997103</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.02141326416839</v>
       </c>
       <c r="M7">
-        <v>11.38033732829581</v>
+        <v>12.73538290745464</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.58934808950951</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67957042792632</v>
+        <v>12.55641979234816</v>
       </c>
       <c r="C8">
-        <v>10.44245101877373</v>
+        <v>11.38330814489137</v>
       </c>
       <c r="D8">
-        <v>6.881417824452448</v>
+        <v>6.887885142039556</v>
       </c>
       <c r="E8">
-        <v>27.35316351154921</v>
+        <v>27.4064008998817</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.88009240334489</v>
+        <v>40.81413829254984</v>
       </c>
       <c r="H8">
-        <v>2.189073315748094</v>
+        <v>2.233999811227996</v>
       </c>
       <c r="I8">
-        <v>3.087427482085235</v>
+        <v>2.943019299954736</v>
       </c>
       <c r="J8">
-        <v>14.2002110636335</v>
+        <v>12.96626722933703</v>
       </c>
       <c r="K8">
-        <v>22.5044550488658</v>
+        <v>19.6243820270169</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.07395184990045</v>
       </c>
       <c r="M8">
-        <v>12.41186691141948</v>
+        <v>13.13966432148629</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.63043803592892</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.62044668859483</v>
+        <v>14.39679348102344</v>
       </c>
       <c r="C9">
-        <v>12.11390101309277</v>
+        <v>13.3182829537044</v>
       </c>
       <c r="D9">
-        <v>8.008202466757629</v>
+        <v>8.009523118883141</v>
       </c>
       <c r="E9">
-        <v>31.76711660390066</v>
+        <v>31.77678715537201</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.94543784555828</v>
+        <v>44.37016016168377</v>
       </c>
       <c r="H9">
-        <v>2.851773074547356</v>
+        <v>2.859611849728529</v>
       </c>
       <c r="I9">
-        <v>2.531540499805156</v>
+        <v>2.494711394882001</v>
       </c>
       <c r="J9">
-        <v>15.07120125057753</v>
+        <v>13.54425266835259</v>
       </c>
       <c r="K9">
-        <v>23.97851130038089</v>
+        <v>20.36812412495838</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.25288451810524</v>
       </c>
       <c r="M9">
-        <v>14.22552597751557</v>
+        <v>14.14246832593742</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.46760718448163</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.90340203407162</v>
+        <v>15.62670731584085</v>
       </c>
       <c r="C10">
-        <v>13.19971080105369</v>
+        <v>14.49839048801713</v>
       </c>
       <c r="D10">
-        <v>8.757067125580198</v>
+        <v>8.75332004757218</v>
       </c>
       <c r="E10">
-        <v>33.81585601417137</v>
+        <v>33.79020295397223</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.73721638126852</v>
+        <v>46.534121435368</v>
       </c>
       <c r="H10">
-        <v>3.277409073334304</v>
+        <v>3.257207797525971</v>
       </c>
       <c r="I10">
-        <v>2.794769171069678</v>
+        <v>2.802670556711331</v>
       </c>
       <c r="J10">
-        <v>15.54310551358949</v>
+        <v>13.50618660819606</v>
       </c>
       <c r="K10">
-        <v>24.73855413591798</v>
+        <v>20.55992307835903</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.10739493294912</v>
       </c>
       <c r="M10">
-        <v>15.42013747197332</v>
+        <v>14.65381092401619</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.66054246467224</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.49479014495399</v>
+        <v>16.25408841233563</v>
       </c>
       <c r="C11">
-        <v>13.19786427262694</v>
+        <v>14.27146502327563</v>
       </c>
       <c r="D11">
-        <v>9.06902967740116</v>
+        <v>9.064057658622053</v>
       </c>
       <c r="E11">
-        <v>27.17092464879709</v>
+        <v>27.13778191078888</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.54840342035658</v>
+        <v>43.48870722303621</v>
       </c>
       <c r="H11">
-        <v>3.759493481826849</v>
+        <v>3.738174745868376</v>
       </c>
       <c r="I11">
-        <v>2.866063394036845</v>
+        <v>2.86421066910337</v>
       </c>
       <c r="J11">
-        <v>14.57731395248335</v>
+        <v>12.07167789307926</v>
       </c>
       <c r="K11">
-        <v>22.93284063323357</v>
+        <v>18.86027004582125</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.75819812564917</v>
       </c>
       <c r="M11">
-        <v>15.79533534894761</v>
+        <v>13.47051442675188</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.99111036108973</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.74676991487139</v>
+        <v>16.54084257559546</v>
       </c>
       <c r="C12">
-        <v>12.94683142695307</v>
+        <v>13.84497947780278</v>
       </c>
       <c r="D12">
-        <v>9.180450672050522</v>
+        <v>9.175692928237469</v>
       </c>
       <c r="E12">
-        <v>21.12242695582351</v>
+        <v>21.0897679403047</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.59195205360528</v>
+        <v>40.44734661122337</v>
       </c>
       <c r="H12">
-        <v>4.719379629283285</v>
+        <v>4.704195285645234</v>
       </c>
       <c r="I12">
-        <v>2.856302045062373</v>
+        <v>2.856559218362806</v>
       </c>
       <c r="J12">
-        <v>13.70624580426098</v>
+        <v>11.14528659409848</v>
       </c>
       <c r="K12">
-        <v>21.35039382035582</v>
+        <v>17.56339028534137</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.80205008766519</v>
       </c>
       <c r="M12">
-        <v>15.86893620395239</v>
+        <v>12.48216392199339</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.03398006789108</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.75343670752502</v>
+        <v>16.58088593796898</v>
       </c>
       <c r="C13">
-        <v>12.51510390937855</v>
+        <v>13.27870308947655</v>
       </c>
       <c r="D13">
-        <v>9.147847292803046</v>
+        <v>9.144617304616705</v>
       </c>
       <c r="E13">
-        <v>14.98779580135127</v>
+        <v>14.96302707267234</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>42.29768823003926</v>
+        <v>36.88969921536854</v>
       </c>
       <c r="H13">
-        <v>5.861300143905298</v>
+        <v>5.853459256552628</v>
       </c>
       <c r="I13">
-        <v>2.787889703964249</v>
+        <v>2.802461585385812</v>
       </c>
       <c r="J13">
-        <v>12.80592582510348</v>
+        <v>10.59727164844607</v>
       </c>
       <c r="K13">
-        <v>19.74311262315854</v>
+        <v>16.46241933780978</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.04742602068303</v>
       </c>
       <c r="M13">
-        <v>15.72350155579778</v>
+        <v>11.56399165461282</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.87011968800172</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.64666209778546</v>
+        <v>16.49722984813038</v>
       </c>
       <c r="C14">
-        <v>12.13355311173965</v>
+        <v>12.81740296228404</v>
       </c>
       <c r="D14">
-        <v>9.059796355711198</v>
+        <v>9.058155767509181</v>
       </c>
       <c r="E14">
-        <v>10.61133104511175</v>
+        <v>10.59642703107266</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.06953862141051</v>
+        <v>34.11679135345928</v>
       </c>
       <c r="H14">
-        <v>6.726335390509656</v>
+        <v>6.722980240512475</v>
       </c>
       <c r="I14">
-        <v>2.71600047327081</v>
+        <v>2.746066153769729</v>
       </c>
       <c r="J14">
-        <v>12.15664089837214</v>
+        <v>10.3528879893881</v>
       </c>
       <c r="K14">
-        <v>18.5974204978752</v>
+        <v>15.76638539665382</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.59428998582615</v>
       </c>
       <c r="M14">
-        <v>15.5231157260912</v>
+        <v>10.94487924056803</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.66155992963961</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.56513192913994</v>
+        <v>16.42165475996463</v>
       </c>
       <c r="C15">
-        <v>12.00790956687621</v>
+        <v>12.67808828031075</v>
       </c>
       <c r="D15">
-        <v>9.007144068834522</v>
+        <v>9.006164156789104</v>
       </c>
       <c r="E15">
-        <v>9.517916791650002</v>
+        <v>9.50842674237372</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.16124057226776</v>
+        <v>33.30069141475646</v>
       </c>
       <c r="H15">
-        <v>6.924202750690925</v>
+        <v>6.922273944425239</v>
       </c>
       <c r="I15">
-        <v>2.686288979786505</v>
+        <v>2.723419229736589</v>
       </c>
       <c r="J15">
-        <v>11.98305810523769</v>
+        <v>10.34371649428592</v>
       </c>
       <c r="K15">
-        <v>18.29288729658611</v>
+        <v>15.61349541714844</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.5030124028005</v>
       </c>
       <c r="M15">
-        <v>15.42744392474633</v>
+        <v>10.7938300393127</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.56606198370201</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.04072138926543</v>
+        <v>15.90029386557387</v>
       </c>
       <c r="C16">
-        <v>11.63092950889117</v>
+        <v>12.35522068153301</v>
       </c>
       <c r="D16">
-        <v>8.706140670636911</v>
+        <v>8.707667925641982</v>
       </c>
       <c r="E16">
-        <v>9.364096643218774</v>
+        <v>9.379303796676215</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.53914781092261</v>
+        <v>32.49618333007098</v>
       </c>
       <c r="H16">
-        <v>6.642556991255338</v>
+        <v>6.6456208918192</v>
       </c>
       <c r="I16">
-        <v>2.549205911157347</v>
+        <v>2.613294765883188</v>
       </c>
       <c r="J16">
-        <v>11.92737942181719</v>
+        <v>10.83385078789477</v>
       </c>
       <c r="K16">
-        <v>18.22405585667855</v>
+        <v>15.86701829229601</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.74917847106037</v>
       </c>
       <c r="M16">
-        <v>14.96240011601999</v>
+        <v>10.87943932961183</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.12148731708759</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.68773301489401</v>
+        <v>15.53966625977047</v>
       </c>
       <c r="C17">
-        <v>11.54988932429918</v>
+        <v>12.34790459146972</v>
       </c>
       <c r="D17">
-        <v>8.519166496001979</v>
+        <v>8.521672458849624</v>
       </c>
       <c r="E17">
-        <v>11.68886444482266</v>
+        <v>11.71128610041895</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.83010824108104</v>
+        <v>33.45352535425585</v>
       </c>
       <c r="H17">
-        <v>5.913068735148936</v>
+        <v>5.918721762604821</v>
       </c>
       <c r="I17">
-        <v>2.536193526957545</v>
+        <v>2.557460036596534</v>
       </c>
       <c r="J17">
-        <v>12.23141849101463</v>
+        <v>11.30106282723231</v>
       </c>
       <c r="K17">
-        <v>18.77959455809184</v>
+        <v>16.41023101005374</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.17761745693392</v>
       </c>
       <c r="M17">
-        <v>14.7090530849078</v>
+        <v>11.24938616076924</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.88567151166512</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.45624767114786</v>
+        <v>15.28609953017056</v>
       </c>
       <c r="C18">
-        <v>11.70515917571011</v>
+        <v>12.62363289537691</v>
       </c>
       <c r="D18">
-        <v>8.413358537582683</v>
+        <v>8.415783893987035</v>
       </c>
       <c r="E18">
-        <v>16.52707716941527</v>
+        <v>16.54599993536785</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.03108115759389</v>
+        <v>36.0348261470907</v>
       </c>
       <c r="H18">
-        <v>4.778940003556632</v>
+        <v>4.78595374370463</v>
       </c>
       <c r="I18">
-        <v>2.538802748474791</v>
+        <v>2.54143957536363</v>
       </c>
       <c r="J18">
-        <v>12.90925916630189</v>
+        <v>11.92657392734193</v>
       </c>
       <c r="K18">
-        <v>20.00430193586551</v>
+        <v>17.36615615914494</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.89325544020556</v>
       </c>
       <c r="M18">
-        <v>14.61518044225574</v>
+        <v>11.9748424602008</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.81308806537774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.33659578092956</v>
+        <v>15.13387687508721</v>
       </c>
       <c r="C19">
-        <v>12.08600812085634</v>
+        <v>13.15564797645975</v>
       </c>
       <c r="D19">
-        <v>8.382582454898737</v>
+        <v>8.384080041228541</v>
       </c>
       <c r="E19">
-        <v>22.98339544856026</v>
+        <v>22.99418177340029</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.3002120538582</v>
+        <v>39.49486684593</v>
       </c>
       <c r="H19">
-        <v>3.6276818679757</v>
+        <v>3.633829762542967</v>
       </c>
       <c r="I19">
-        <v>2.511273912729208</v>
+        <v>2.57812459860586</v>
       </c>
       <c r="J19">
-        <v>13.80445375370101</v>
+        <v>12.64843135629107</v>
       </c>
       <c r="K19">
-        <v>21.61281590315149</v>
+        <v>18.5535364037731</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.76956101596609</v>
       </c>
       <c r="M19">
-        <v>14.67021402914612</v>
+        <v>12.90130370752964</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.89089700355394</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55968432161269</v>
+        <v>15.29371388396961</v>
       </c>
       <c r="C20">
-        <v>12.98599398202263</v>
+        <v>14.28713135702769</v>
       </c>
       <c r="D20">
-        <v>8.56505216039238</v>
+        <v>8.563088339387679</v>
       </c>
       <c r="E20">
-        <v>33.24670519144317</v>
+        <v>33.2330437385862</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.62052024808717</v>
+        <v>45.48370713149586</v>
       </c>
       <c r="H20">
-        <v>3.161892009297639</v>
+        <v>3.151047084378974</v>
       </c>
       <c r="I20">
-        <v>2.708603176120375</v>
+        <v>2.738468104843897</v>
       </c>
       <c r="J20">
-        <v>15.33306926354818</v>
+        <v>13.64678064419187</v>
       </c>
       <c r="K20">
-        <v>24.35689839104209</v>
+        <v>20.43977990284674</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.09473093454577</v>
       </c>
       <c r="M20">
-        <v>15.1248346503997</v>
+        <v>14.46261266230751</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.3721529154685</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.49536869741702</v>
+        <v>16.20890674415925</v>
       </c>
       <c r="C21">
-        <v>13.86589179705701</v>
+        <v>15.0982097425145</v>
       </c>
       <c r="D21">
-        <v>9.118181307365044</v>
+        <v>9.110122397314768</v>
       </c>
       <c r="E21">
-        <v>36.1001121118723</v>
+        <v>36.04645101974953</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.72275336384877</v>
+        <v>48.72203157892796</v>
       </c>
       <c r="H21">
-        <v>3.541583607076563</v>
+        <v>3.499805386053121</v>
       </c>
       <c r="I21">
-        <v>3.001446187148309</v>
+        <v>2.97145618317509</v>
       </c>
       <c r="J21">
-        <v>15.91315449850353</v>
+        <v>12.75671450457008</v>
       </c>
       <c r="K21">
-        <v>25.33804187706511</v>
+        <v>20.47622770922664</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.90745705529747</v>
       </c>
       <c r="M21">
-        <v>16.02807284590291</v>
+        <v>14.7753135818476</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.23952397753055</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.09040109224294</v>
+        <v>16.79443665444088</v>
       </c>
       <c r="C22">
-        <v>14.36855232802781</v>
+        <v>15.5390996826542</v>
       </c>
       <c r="D22">
-        <v>9.465815296678279</v>
+        <v>9.453472042768604</v>
       </c>
       <c r="E22">
-        <v>37.45516165514017</v>
+        <v>37.37509065666569</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.52711261658996</v>
+        <v>50.72633401695381</v>
       </c>
       <c r="H22">
-        <v>3.767427894270001</v>
+        <v>3.705897188342661</v>
       </c>
       <c r="I22">
-        <v>3.182168133648639</v>
+        <v>3.112586125563193</v>
       </c>
       <c r="J22">
-        <v>16.25161483352981</v>
+        <v>12.10032743411282</v>
       </c>
       <c r="K22">
-        <v>25.91346891613758</v>
+        <v>20.4344997050291</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.73868787130848</v>
       </c>
       <c r="M22">
-        <v>16.5835941842094</v>
+        <v>14.93246910635344</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.76867466302115</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.78118118539857</v>
+        <v>16.48570159598028</v>
       </c>
       <c r="C23">
-        <v>14.07754210399028</v>
+        <v>15.30593691987884</v>
       </c>
       <c r="D23">
-        <v>9.281665703229882</v>
+        <v>9.271779005037581</v>
       </c>
       <c r="E23">
-        <v>36.73805594613997</v>
+        <v>36.67301912619955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.70173590447499</v>
+        <v>49.66647278483958</v>
       </c>
       <c r="H23">
-        <v>3.648131009113225</v>
+        <v>3.597823141405339</v>
       </c>
       <c r="I23">
-        <v>3.082664568207082</v>
+        <v>3.03377834645331</v>
       </c>
       <c r="J23">
-        <v>16.10119793895186</v>
+        <v>12.61001592860974</v>
       </c>
       <c r="K23">
-        <v>25.67115138063174</v>
+        <v>20.56577640210886</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.90596991319923</v>
       </c>
       <c r="M23">
-        <v>16.28514711648763</v>
+        <v>14.9349898286495</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.48971558781987</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.549544653054</v>
+        <v>15.27887998487153</v>
       </c>
       <c r="C24">
-        <v>12.98007809006331</v>
+        <v>14.30043306036204</v>
       </c>
       <c r="D24">
-        <v>8.557167214234083</v>
+        <v>8.555047480848325</v>
       </c>
       <c r="E24">
-        <v>33.91183471625263</v>
+        <v>33.89705219344957</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.27327338417914</v>
+        <v>46.02009438609899</v>
       </c>
       <c r="H24">
-        <v>3.187948118903165</v>
+        <v>3.176206582096826</v>
       </c>
       <c r="I24">
-        <v>2.706833251675676</v>
+        <v>2.732896155095482</v>
       </c>
       <c r="J24">
-        <v>15.47660807387279</v>
+        <v>13.77235296945109</v>
       </c>
       <c r="K24">
-        <v>24.63401447547587</v>
+        <v>20.65892368745432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.25906589253589</v>
       </c>
       <c r="M24">
-        <v>15.11747756919153</v>
+        <v>14.62970746693821</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.36770216154444</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1106101537983</v>
+        <v>13.91189816917833</v>
       </c>
       <c r="C25">
-        <v>11.72142788612757</v>
+        <v>12.86963101262746</v>
       </c>
       <c r="D25">
-        <v>7.71691038132847</v>
+        <v>7.719947963501153</v>
       </c>
       <c r="E25">
-        <v>30.62643854665908</v>
+        <v>30.64929966966681</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.39146448990134</v>
+        <v>43.17435047668964</v>
       </c>
       <c r="H25">
-        <v>2.675261609695632</v>
+        <v>2.6939998576435</v>
       </c>
       <c r="I25">
-        <v>2.697374926349074</v>
+        <v>2.616522157712751</v>
       </c>
       <c r="J25">
-        <v>14.79011932293318</v>
+        <v>13.43494100718668</v>
       </c>
       <c r="K25">
-        <v>23.48350477852753</v>
+        <v>20.11870969461497</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.17171041757039</v>
       </c>
       <c r="M25">
-        <v>13.76335718307825</v>
+        <v>13.82360272408098</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.00230725544644</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
